--- a/reports/_MBL_SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-10-08_2_.xlsx
+++ b/reports/_MBL_SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-10-08_2_.xlsx
@@ -385,12 +385,13 @@
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A2:AD2"/>
     <mergeCell ref="A3:AD3"/>
     <mergeCell ref="A4:AD4"/>
     <mergeCell ref="A5:AD5"/>
+    <mergeCell ref="A6:AD6"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
@@ -543,12 +544,13 @@
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A2:AD2"/>
     <mergeCell ref="A3:AD3"/>
     <mergeCell ref="A4:AD4"/>
     <mergeCell ref="A5:AD5"/>
+    <mergeCell ref="A6:AD6"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
@@ -568,7 +570,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -689,12 +691,13 @@
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A2:AD2"/>
     <mergeCell ref="A3:AD3"/>
     <mergeCell ref="A4:AD4"/>
     <mergeCell ref="A5:AD5"/>
+    <mergeCell ref="A6:AD6"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
@@ -708,7 +711,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AE7"/>
+  <dimension ref="A1:AE8"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -776,212 +779,220 @@
         </is>
       </c>
     </row>
-    <row r="5"/>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>Total number of conatiners:1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6"/>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>Container Number</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>Size</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>Height</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>Company</t>
         </is>
       </c>
-      <c r="G6" s="4" t="inlineStr">
+      <c r="G7" s="4" t="inlineStr">
         <is>
           <t>Agent</t>
         </is>
       </c>
-      <c r="H6" s="4" t="inlineStr">
+      <c r="H7" s="4" t="inlineStr">
         <is>
           <t>MLO</t>
         </is>
       </c>
-      <c r="I6" s="4" t="inlineStr">
+      <c r="I7" s="4" t="inlineStr">
         <is>
           <t>Import Vessel</t>
         </is>
       </c>
-      <c r="J6" s="4" t="inlineStr">
+      <c r="J7" s="4" t="inlineStr">
         <is>
           <t>Rotation #</t>
         </is>
       </c>
-      <c r="K6" s="4" t="inlineStr">
+      <c r="K7" s="4" t="inlineStr">
         <is>
           <t>BE #</t>
         </is>
       </c>
-      <c r="L6" s="4" t="inlineStr">
+      <c r="L7" s="4" t="inlineStr">
         <is>
           <t>BL #</t>
         </is>
       </c>
-      <c r="M6" s="4" t="inlineStr">
+      <c r="M7" s="4" t="inlineStr">
         <is>
           <t>Line #</t>
         </is>
       </c>
-      <c r="N6" s="4" t="inlineStr">
+      <c r="N7" s="4" t="inlineStr">
         <is>
           <t>Importer</t>
         </is>
       </c>
-      <c r="O6" s="4" t="inlineStr">
+      <c r="O7" s="4" t="inlineStr">
         <is>
           <t>CNF</t>
         </is>
       </c>
-      <c r="P6" s="4" t="inlineStr">
+      <c r="P7" s="4" t="inlineStr">
         <is>
           <t>EIR #</t>
         </is>
       </c>
-      <c r="Q6" s="4" t="inlineStr">
+      <c r="Q7" s="4" t="inlineStr">
         <is>
           <t>Commodity</t>
         </is>
       </c>
-      <c r="R6" s="4" t="inlineStr">
+      <c r="R7" s="4" t="inlineStr">
         <is>
           <t>Seal Number</t>
         </is>
       </c>
-      <c r="S6" s="4" t="inlineStr">
+      <c r="S7" s="4" t="inlineStr">
         <is>
           <t>Amended Seal No</t>
         </is>
       </c>
-      <c r="T6" s="4" t="inlineStr">
+      <c r="T7" s="4" t="inlineStr">
         <is>
           <t>Location - From</t>
         </is>
       </c>
-      <c r="U6" s="4" t="inlineStr">
+      <c r="U7" s="4" t="inlineStr">
         <is>
           <t>Depo Loc</t>
         </is>
       </c>
-      <c r="V6" s="4" t="inlineStr">
+      <c r="V7" s="4" t="inlineStr">
         <is>
           <t>Issue Date</t>
         </is>
       </c>
-      <c r="W6" s="4" t="inlineStr">
+      <c r="W7" s="4" t="inlineStr">
         <is>
           <t>In Date</t>
         </is>
       </c>
-      <c r="X6" s="4" t="inlineStr">
+      <c r="X7" s="4" t="inlineStr">
         <is>
           <t>Unstuffing Date</t>
         </is>
       </c>
-      <c r="Y6" s="4" t="inlineStr">
+      <c r="Y7" s="4" t="inlineStr">
         <is>
           <t>Container Condition</t>
         </is>
       </c>
-      <c r="Z6" s="4" t="inlineStr">
+      <c r="Z7" s="4" t="inlineStr">
         <is>
           <t>Damage Area</t>
         </is>
       </c>
-      <c r="AA6" s="4" t="inlineStr">
+      <c r="AA7" s="4" t="inlineStr">
         <is>
           <t>Damage Part</t>
         </is>
       </c>
-      <c r="AB6" s="4" t="inlineStr">
+      <c r="AB7" s="4" t="inlineStr">
         <is>
           <t>Damage Description</t>
         </is>
       </c>
-      <c r="AC6" s="4" t="inlineStr">
+      <c r="AC7" s="4" t="inlineStr">
         <is>
           <t>In Transport</t>
         </is>
       </c>
-      <c r="AD6" s="4" t="inlineStr">
+      <c r="AD7" s="4" t="inlineStr">
         <is>
           <t>In Trailer</t>
         </is>
       </c>
-      <c r="AE6" s="4" t="inlineStr">
+      <c r="AE7" s="4" t="inlineStr">
         <is>
           <t>Trailer #</t>
         </is>
       </c>
-      <c r="AF6" s="4" t="inlineStr">
+      <c r="AF7" s="4" t="inlineStr">
         <is>
           <t>In Remarks</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0"/>
-      <c r="E7" s="0"/>
-      <c r="F7" s="0"/>
-      <c r="G7" s="0"/>
-      <c r="H7" s="0"/>
-      <c r="I7" s="0"/>
-      <c r="J7" s="0"/>
-      <c r="K7" s="0"/>
-      <c r="L7" s="0"/>
-      <c r="M7" s="0"/>
-      <c r="N7" s="0"/>
-      <c r="O7" s="0"/>
-      <c r="P7" s="0"/>
-      <c r="Q7" s="0"/>
-      <c r="R7" s="0"/>
-      <c r="S7" s="0"/>
-      <c r="T7" s="0"/>
-      <c r="U7" s="0"/>
-      <c r="V7" s="0"/>
-      <c r="W7" s="0"/>
-      <c r="X7" s="0"/>
-      <c r="Y7" s="0"/>
-      <c r="Z7" s="0"/>
-      <c r="AA7" s="0"/>
-      <c r="AB7" s="0"/>
-      <c r="AC7" s="0"/>
-      <c r="AD7" s="0"/>
-      <c r="AE7" s="0"/>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" s="0"/>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="0"/>
+      <c r="G8" s="0"/>
+      <c r="H8" s="0"/>
+      <c r="I8" s="0"/>
+      <c r="J8" s="0"/>
+      <c r="K8" s="0"/>
+      <c r="L8" s="0"/>
+      <c r="M8" s="0"/>
+      <c r="N8" s="0"/>
+      <c r="O8" s="0"/>
+      <c r="P8" s="0"/>
+      <c r="Q8" s="0"/>
+      <c r="R8" s="0"/>
+      <c r="S8" s="0"/>
+      <c r="T8" s="0"/>
+      <c r="U8" s="0"/>
+      <c r="V8" s="0"/>
+      <c r="W8" s="0"/>
+      <c r="X8" s="0"/>
+      <c r="Y8" s="0"/>
+      <c r="Z8" s="0"/>
+      <c r="AA8" s="0"/>
+      <c r="AB8" s="0"/>
+      <c r="AC8" s="0"/>
+      <c r="AD8" s="0"/>
+      <c r="AE8" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A2:AD2"/>
     <mergeCell ref="A3:AD3"/>
     <mergeCell ref="A4:AD4"/>
     <mergeCell ref="A5:AD5"/>
+    <mergeCell ref="A6:AD6"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
@@ -1122,12 +1133,13 @@
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A2:AD2"/>
     <mergeCell ref="A3:AD3"/>
     <mergeCell ref="A4:AD4"/>
     <mergeCell ref="A5:AD5"/>
+    <mergeCell ref="A6:AD6"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
@@ -1141,7 +1153,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AH7"/>
+  <dimension ref="A1:AH8"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -1211,215 +1223,223 @@
         </is>
       </c>
     </row>
-    <row r="5"/>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>Total number of conatiners:1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6"/>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>Container Number</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>Size</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>Company</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>Agent</t>
         </is>
       </c>
-      <c r="G6" s="4" t="inlineStr">
+      <c r="G7" s="4" t="inlineStr">
         <is>
           <t>MLO</t>
         </is>
       </c>
-      <c r="H6" s="4" t="inlineStr">
+      <c r="H7" s="4" t="inlineStr">
         <is>
           <t>Import Vessel</t>
         </is>
       </c>
-      <c r="I6" s="4" t="inlineStr">
+      <c r="I7" s="4" t="inlineStr">
         <is>
           <t>Rotation #</t>
         </is>
       </c>
-      <c r="J6" s="4" t="inlineStr">
+      <c r="J7" s="4" t="inlineStr">
         <is>
           <t>Importer</t>
         </is>
       </c>
-      <c r="K6" s="4" t="inlineStr">
+      <c r="K7" s="4" t="inlineStr">
         <is>
           <t>CNFCommodity</t>
         </is>
       </c>
-      <c r="L6" s="4" t="inlineStr">
+      <c r="L7" s="4" t="inlineStr">
         <is>
           <t>Current Depo</t>
         </is>
       </c>
-      <c r="M6" s="4" t="inlineStr">
+      <c r="M7" s="4" t="inlineStr">
         <is>
           <t>Seal Number</t>
         </is>
       </c>
-      <c r="N6" s="4" t="inlineStr">
+      <c r="N7" s="4" t="inlineStr">
         <is>
           <t>Amended Seal No</t>
         </is>
       </c>
-      <c r="O6" s="4" t="inlineStr">
+      <c r="O7" s="4" t="inlineStr">
         <is>
           <t>EIR #</t>
         </is>
       </c>
-      <c r="P6" s="4" t="inlineStr">
+      <c r="P7" s="4" t="inlineStr">
         <is>
           <t>BE #</t>
         </is>
       </c>
-      <c r="Q6" s="4" t="inlineStr">
+      <c r="Q7" s="4" t="inlineStr">
         <is>
           <t>BL #</t>
         </is>
       </c>
-      <c r="R6" s="4" t="inlineStr">
+      <c r="R7" s="4" t="inlineStr">
         <is>
           <t>Line #</t>
         </is>
       </c>
-      <c r="S6" s="4" t="inlineStr">
+      <c r="S7" s="4" t="inlineStr">
         <is>
           <t>Location - From</t>
         </is>
       </c>
-      <c r="T6" s="4" t="inlineStr">
+      <c r="T7" s="4" t="inlineStr">
         <is>
           <t>Depo Loc</t>
         </is>
       </c>
-      <c r="U6" s="4" t="inlineStr">
+      <c r="U7" s="4" t="inlineStr">
         <is>
           <t>Issue Date</t>
         </is>
       </c>
-      <c r="V6" s="4" t="inlineStr">
+      <c r="V7" s="4" t="inlineStr">
         <is>
           <t>In Date</t>
         </is>
       </c>
-      <c r="W6" s="4" t="inlineStr">
+      <c r="W7" s="4" t="inlineStr">
         <is>
           <t>Out Date</t>
         </is>
       </c>
-      <c r="X6" s="4" t="inlineStr">
+      <c r="X7" s="4" t="inlineStr">
         <is>
           <t>Out Location</t>
         </is>
       </c>
-      <c r="Y6" s="4" t="inlineStr">
+      <c r="Y7" s="4" t="inlineStr">
         <is>
           <t>Container Condition</t>
         </is>
       </c>
-      <c r="Z6" s="4" t="inlineStr">
+      <c r="Z7" s="4" t="inlineStr">
         <is>
           <t>Damage Area</t>
         </is>
       </c>
-      <c r="AA6" s="4" t="inlineStr">
+      <c r="AA7" s="4" t="inlineStr">
         <is>
           <t>Damage Part</t>
         </is>
       </c>
-      <c r="AB6" s="4" t="inlineStr">
+      <c r="AB7" s="4" t="inlineStr">
         <is>
           <t>Damage Description</t>
         </is>
       </c>
-      <c r="AC6" s="4" t="inlineStr">
+      <c r="AC7" s="4" t="inlineStr">
         <is>
           <t>Total Lot</t>
         </is>
       </c>
-      <c r="AD6" s="4" t="inlineStr">
+      <c r="AD7" s="4" t="inlineStr">
         <is>
           <t>Total Weight</t>
         </is>
       </c>
-      <c r="AE6" s="4" t="inlineStr">
+      <c r="AE7" s="4" t="inlineStr">
         <is>
           <t>Out Transport</t>
         </is>
       </c>
-      <c r="AF6" s="4" t="inlineStr">
+      <c r="AF7" s="4" t="inlineStr">
         <is>
           <t>Out Remarks</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0"/>
-      <c r="E7" s="0"/>
-      <c r="F7" s="0"/>
-      <c r="G7" s="0"/>
-      <c r="H7" s="0"/>
-      <c r="I7" s="0"/>
-      <c r="J7" s="0"/>
-      <c r="K7" s="0"/>
-      <c r="L7" s="0"/>
-      <c r="M7" s="0"/>
-      <c r="N7" s="0"/>
-      <c r="O7" s="0"/>
-      <c r="P7" s="0"/>
-      <c r="Q7" s="0"/>
-      <c r="R7" s="0"/>
-      <c r="S7" s="0"/>
-      <c r="T7" s="0"/>
-      <c r="U7" s="0"/>
-      <c r="V7" s="0"/>
-      <c r="W7" s="0"/>
-      <c r="X7" s="0"/>
-      <c r="Y7" s="0"/>
-      <c r="Z7" s="0"/>
-      <c r="AA7" s="0"/>
-      <c r="AB7" s="0"/>
-      <c r="AC7" s="0"/>
-      <c r="AD7" s="0"/>
-      <c r="AE7" s="0"/>
-      <c r="AF7" s="0"/>
-      <c r="AG7" s="0"/>
-      <c r="AH7" s="0"/>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" s="0"/>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="0"/>
+      <c r="G8" s="0"/>
+      <c r="H8" s="0"/>
+      <c r="I8" s="0"/>
+      <c r="J8" s="0"/>
+      <c r="K8" s="0"/>
+      <c r="L8" s="0"/>
+      <c r="M8" s="0"/>
+      <c r="N8" s="0"/>
+      <c r="O8" s="0"/>
+      <c r="P8" s="0"/>
+      <c r="Q8" s="0"/>
+      <c r="R8" s="0"/>
+      <c r="S8" s="0"/>
+      <c r="T8" s="0"/>
+      <c r="U8" s="0"/>
+      <c r="V8" s="0"/>
+      <c r="W8" s="0"/>
+      <c r="X8" s="0"/>
+      <c r="Y8" s="0"/>
+      <c r="Z8" s="0"/>
+      <c r="AA8" s="0"/>
+      <c r="AB8" s="0"/>
+      <c r="AC8" s="0"/>
+      <c r="AD8" s="0"/>
+      <c r="AE8" s="0"/>
+      <c r="AF8" s="0"/>
+      <c r="AG8" s="0"/>
+      <c r="AH8" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A2:AD2"/>
     <mergeCell ref="A3:AD3"/>
     <mergeCell ref="A4:AD4"/>
     <mergeCell ref="A5:AD5"/>
+    <mergeCell ref="A6:AD6"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
@@ -1560,12 +1580,13 @@
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A2:AD2"/>
     <mergeCell ref="A3:AD3"/>
     <mergeCell ref="A4:AD4"/>
     <mergeCell ref="A5:AD5"/>
+    <mergeCell ref="A6:AD6"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
@@ -1579,7 +1600,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AC66"/>
+  <dimension ref="A1:AC67"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -1644,264 +1665,168 @@
         </is>
       </c>
     </row>
-    <row r="5"/>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>Total number of conatiners:60</t>
+        </is>
+      </c>
+    </row>
+    <row r="6"/>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>Container Number</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>Size</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>Company</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>Agent</t>
         </is>
       </c>
-      <c r="G6" s="4" t="inlineStr">
+      <c r="G7" s="4" t="inlineStr">
         <is>
           <t>MLO</t>
         </is>
       </c>
-      <c r="H6" s="4" t="inlineStr">
+      <c r="H7" s="4" t="inlineStr">
         <is>
           <t>Import Vessel</t>
         </is>
       </c>
-      <c r="I6" s="4" t="inlineStr">
+      <c r="I7" s="4" t="inlineStr">
         <is>
           <t>Rotation #</t>
         </is>
       </c>
-      <c r="J6" s="4" t="inlineStr">
+      <c r="J7" s="4" t="inlineStr">
         <is>
           <t>Importer</t>
         </is>
       </c>
-      <c r="K6" s="4" t="inlineStr">
+      <c r="K7" s="4" t="inlineStr">
         <is>
           <t>Container Condition</t>
         </is>
       </c>
-      <c r="L6" s="4" t="inlineStr">
+      <c r="L7" s="4" t="inlineStr">
         <is>
           <t>Damage Area</t>
         </is>
       </c>
-      <c r="M6" s="4" t="inlineStr">
+      <c r="M7" s="4" t="inlineStr">
         <is>
           <t>Damage Part</t>
         </is>
       </c>
-      <c r="N6" s="4" t="inlineStr">
+      <c r="N7" s="4" t="inlineStr">
         <is>
           <t>Damage Description</t>
         </is>
       </c>
-      <c r="O6" s="4" t="inlineStr">
+      <c r="O7" s="4" t="inlineStr">
         <is>
           <t>CNF</t>
         </is>
       </c>
-      <c r="P6" s="4" t="inlineStr">
+      <c r="P7" s="4" t="inlineStr">
         <is>
           <t>Commodity</t>
         </is>
       </c>
-      <c r="Q6" s="4" t="inlineStr">
+      <c r="Q7" s="4" t="inlineStr">
         <is>
           <t>Seal Number</t>
         </is>
       </c>
-      <c r="R6" s="4" t="inlineStr">
+      <c r="R7" s="4" t="inlineStr">
         <is>
           <t>Amended Seal No</t>
         </is>
       </c>
-      <c r="S6" s="4" t="inlineStr">
+      <c r="S7" s="4" t="inlineStr">
         <is>
           <t>EIR #</t>
         </is>
       </c>
-      <c r="T6" s="4" t="inlineStr">
+      <c r="T7" s="4" t="inlineStr">
         <is>
           <t>Issue Date</t>
         </is>
       </c>
-      <c r="U6" s="4" t="inlineStr">
+      <c r="U7" s="4" t="inlineStr">
         <is>
           <t>In Date</t>
         </is>
       </c>
-      <c r="V6" s="4" t="inlineStr">
+      <c r="V7" s="4" t="inlineStr">
         <is>
           <t>Location - From</t>
         </is>
       </c>
-      <c r="W6" s="4" t="inlineStr">
+      <c r="W7" s="4" t="inlineStr">
         <is>
           <t>Depo Loc</t>
         </is>
       </c>
-      <c r="X6" s="4" t="inlineStr">
+      <c r="X7" s="4" t="inlineStr">
         <is>
           <t>BE #</t>
         </is>
       </c>
-      <c r="Y6" s="4" t="inlineStr">
+      <c r="Y7" s="4" t="inlineStr">
         <is>
           <t>BL #</t>
         </is>
       </c>
-      <c r="Z6" s="4" t="inlineStr">
+      <c r="Z7" s="4" t="inlineStr">
         <is>
           <t>Line #</t>
         </is>
       </c>
-      <c r="AA6" s="4" t="inlineStr">
+      <c r="AA7" s="4" t="inlineStr">
         <is>
           <t>Trailer #</t>
         </is>
       </c>
-      <c r="AB6" s="4" t="inlineStr">
+      <c r="AB7" s="4" t="inlineStr">
         <is>
           <t>In Transport</t>
         </is>
       </c>
-      <c r="AC6" s="4" t="inlineStr">
+      <c r="AC7" s="4" t="inlineStr">
         <is>
           <t>In Remarks</t>
         </is>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="n">
-        <v>8791</v>
-      </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>MSKU3875070</t>
-        </is>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="D7" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="E7" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="F7" s="0" t="inlineStr">
-        <is>
-          <t>MBL</t>
-        </is>
-      </c>
-      <c r="G7" s="0" t="inlineStr">
-        <is>
-          <t>MBL</t>
-        </is>
-      </c>
-      <c r="H7" s="0" t="inlineStr">
-        <is>
-          <t>CRISTINA A</t>
-        </is>
-      </c>
-      <c r="I7" s="0" t="inlineStr">
-        <is>
-          <t>1343/10</t>
-        </is>
-      </c>
-      <c r="J7" s="0" t="inlineStr">
-        <is>
-          <t>M/S MAF INTERNATIONAL</t>
-        </is>
-      </c>
-      <c r="K7" s="0" t="inlineStr">
-        <is>
-          <t>SOUND</t>
-        </is>
-      </c>
-      <c r="L7" s="0"/>
-      <c r="M7" s="0"/>
-      <c r="N7" s="0"/>
-      <c r="O7" s="0"/>
-      <c r="P7" s="0" t="inlineStr">
-        <is>
-          <t>MEAT AND BONE MEAL</t>
-        </is>
-      </c>
-      <c r="Q7" s="0" t="n">
-        <v>5557</v>
-      </c>
-      <c r="R7" s="0"/>
-      <c r="S7" s="0"/>
-      <c r="T7" s="0" t="d">
-        <v>2010-08-04T00:00:00</v>
-      </c>
-      <c r="U7" s="0" t="d">
-        <v>2010-08-11T00:00:00</v>
-      </c>
-      <c r="V7" s="0" t="inlineStr">
-        <is>
-          <t>SHIP</t>
-        </is>
-      </c>
-      <c r="W7" s="0" t="inlineStr">
-        <is>
-          <t>SAPL</t>
-        </is>
-      </c>
-      <c r="X7" s="0" t="n">
-        <v>551455462</v>
-      </c>
-      <c r="Y7" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z7" s="0" t="inlineStr">
-        <is>
-          <t>MSL-10</t>
-        </is>
-      </c>
-      <c r="AA7" s="0"/>
-      <c r="AB7" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AC7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="n">
-        <v>8829</v>
+        <v>8791</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>MSKU7718973</t>
+          <t>MSKU3875070</t>
         </is>
       </c>
       <c r="C8" s="0" t="n">
@@ -1929,17 +1854,17 @@
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
-          <t>VASI SUN</t>
+          <t>CRISTINA A</t>
         </is>
       </c>
       <c r="I8" s="0" t="inlineStr">
         <is>
-          <t>0116/2017</t>
+          <t>1343/10</t>
         </is>
       </c>
       <c r="J8" s="0" t="inlineStr">
         <is>
-          <t>BENGAL TRADING</t>
+          <t>M/S MAF INTERNATIONAL</t>
         </is>
       </c>
       <c r="K8" s="0" t="inlineStr">
@@ -1953,29 +1878,23 @@
       <c r="O8" s="0"/>
       <c r="P8" s="0" t="inlineStr">
         <is>
-          <t>CHICK PEAS</t>
-        </is>
-      </c>
-      <c r="Q8" s="0" t="inlineStr">
-        <is>
-          <t>AU0512384</t>
-        </is>
+          <t>MEAT AND BONE MEAL</t>
+        </is>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <v>5557</v>
       </c>
       <c r="R8" s="0"/>
-      <c r="S8" s="0" t="inlineStr">
-        <is>
-          <t>2017-1136</t>
-        </is>
-      </c>
+      <c r="S8" s="0"/>
       <c r="T8" s="0" t="d">
-        <v>2017-01-16T00:00:00</v>
+        <v>2010-08-04T00:00:00</v>
       </c>
       <c r="U8" s="0" t="d">
-        <v>2017-01-17T00:00:00</v>
+        <v>2010-08-11T00:00:00</v>
       </c>
       <c r="V8" s="0" t="inlineStr">
         <is>
-          <t>CPA</t>
+          <t>SHIP</t>
         </is>
       </c>
       <c r="W8" s="0" t="inlineStr">
@@ -1984,13 +1903,17 @@
         </is>
       </c>
       <c r="X8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="0" t="n">
-        <v>571749290</v>
-      </c>
-      <c r="Z8" s="0" t="n">
-        <v>109</v>
+        <v>551455462</v>
+      </c>
+      <c r="Y8" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z8" s="0" t="inlineStr">
+        <is>
+          <t>MSL-10</t>
+        </is>
       </c>
       <c r="AA8" s="0"/>
       <c r="AB8" s="0" t="inlineStr">
@@ -2002,11 +1925,11 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="n">
-        <v>8830</v>
+        <v>8829</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>MSKU2423244</t>
+          <t>MSKU7718973</t>
         </is>
       </c>
       <c r="C9" s="0" t="n">
@@ -2063,20 +1986,20 @@
       </c>
       <c r="Q9" s="0" t="inlineStr">
         <is>
-          <t>AU0514169</t>
+          <t>AU0512384</t>
         </is>
       </c>
       <c r="R9" s="0"/>
       <c r="S9" s="0" t="inlineStr">
         <is>
-          <t>2017-1282</t>
+          <t>2017-1136</t>
         </is>
       </c>
       <c r="T9" s="0" t="d">
         <v>2017-01-16T00:00:00</v>
       </c>
       <c r="U9" s="0" t="d">
-        <v>2017-01-21T00:00:00</v>
+        <v>2017-01-17T00:00:00</v>
       </c>
       <c r="V9" s="0" t="inlineStr">
         <is>
@@ -2107,19 +2030,19 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="n">
-        <v>8868</v>
+        <v>8830</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>MSKU9163730</t>
+          <t>MSKU2423244</t>
         </is>
       </c>
       <c r="C10" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D10" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E10" s="0" t="inlineStr">
@@ -2139,17 +2062,17 @@
       </c>
       <c r="H10" s="0" t="inlineStr">
         <is>
-          <t>X-PRESS MAHANANDA</t>
+          <t>VASI SUN</t>
         </is>
       </c>
       <c r="I10" s="0" t="inlineStr">
         <is>
-          <t>1588/2018</t>
+          <t>0116/2017</t>
         </is>
       </c>
       <c r="J10" s="0" t="inlineStr">
         <is>
-          <t>A A COARSE SPUN LTD</t>
+          <t>BENGAL TRADING</t>
         </is>
       </c>
       <c r="K10" s="0" t="inlineStr">
@@ -2163,25 +2086,25 @@
       <c r="O10" s="0"/>
       <c r="P10" s="0" t="inlineStr">
         <is>
-          <t>RAW COTTON</t>
+          <t>CHICK PEAS</t>
         </is>
       </c>
       <c r="Q10" s="0" t="inlineStr">
         <is>
-          <t>KWH687344</t>
+          <t>AU0514169</t>
         </is>
       </c>
       <c r="R10" s="0"/>
       <c r="S10" s="0" t="inlineStr">
         <is>
-          <t>2018-9476</t>
+          <t>2017-1282</t>
         </is>
       </c>
       <c r="T10" s="0" t="d">
-        <v>2018-05-19T00:00:00</v>
+        <v>2017-01-16T00:00:00</v>
       </c>
       <c r="U10" s="0" t="d">
-        <v>2018-05-30T00:00:00</v>
+        <v>2017-01-21T00:00:00</v>
       </c>
       <c r="V10" s="0" t="inlineStr">
         <is>
@@ -2197,10 +2120,10 @@
         <v>0</v>
       </c>
       <c r="Y10" s="0" t="n">
-        <v>963897980</v>
+        <v>571749290</v>
       </c>
       <c r="Z10" s="0" t="n">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="AA10" s="0"/>
       <c r="AB10" s="0" t="inlineStr">
@@ -2212,11 +2135,11 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="n">
-        <v>8869</v>
+        <v>8868</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>MSKU9055669</t>
+          <t>MSKU9163730</t>
         </is>
       </c>
       <c r="C11" s="0" t="n">
@@ -2273,13 +2196,13 @@
       </c>
       <c r="Q11" s="0" t="inlineStr">
         <is>
-          <t>KWH687327</t>
+          <t>KWH687344</t>
         </is>
       </c>
       <c r="R11" s="0"/>
       <c r="S11" s="0" t="inlineStr">
         <is>
-          <t>2018-9477</t>
+          <t>2018-9476</t>
         </is>
       </c>
       <c r="T11" s="0" t="d">
@@ -2317,11 +2240,11 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="n">
-        <v>8870</v>
+        <v>8869</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>PONU1509889</t>
+          <t>MSKU9055669</t>
         </is>
       </c>
       <c r="C12" s="0" t="n">
@@ -2329,7 +2252,7 @@
       </c>
       <c r="D12" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E12" s="0" t="inlineStr">
@@ -2378,13 +2301,13 @@
       </c>
       <c r="Q12" s="0" t="inlineStr">
         <is>
-          <t>KWH686765</t>
+          <t>KWH687327</t>
         </is>
       </c>
       <c r="R12" s="0"/>
       <c r="S12" s="0" t="inlineStr">
         <is>
-          <t>2018-9491</t>
+          <t>2018-9477</t>
         </is>
       </c>
       <c r="T12" s="0" t="d">
@@ -2422,11 +2345,11 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="n">
-        <v>8871</v>
+        <v>8870</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>SUDU6787150</t>
+          <t>PONU1509889</t>
         </is>
       </c>
       <c r="C13" s="0" t="n">
@@ -2434,7 +2357,7 @@
       </c>
       <c r="D13" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E13" s="0" t="inlineStr">
@@ -2483,13 +2406,13 @@
       </c>
       <c r="Q13" s="0" t="inlineStr">
         <is>
-          <t>KWH686903</t>
+          <t>KWH686765</t>
         </is>
       </c>
       <c r="R13" s="0"/>
       <c r="S13" s="0" t="inlineStr">
         <is>
-          <t>2018-9489</t>
+          <t>2018-9491</t>
         </is>
       </c>
       <c r="T13" s="0" t="d">
@@ -2527,11 +2450,11 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="n">
-        <v>8872</v>
+        <v>8871</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>MSKU0599445</t>
+          <t>SUDU6787150</t>
         </is>
       </c>
       <c r="C14" s="0" t="n">
@@ -2588,13 +2511,13 @@
       </c>
       <c r="Q14" s="0" t="inlineStr">
         <is>
-          <t>KWH686830</t>
+          <t>KWH686903</t>
         </is>
       </c>
       <c r="R14" s="0"/>
       <c r="S14" s="0" t="inlineStr">
         <is>
-          <t>2018-9490</t>
+          <t>2018-9489</t>
         </is>
       </c>
       <c r="T14" s="0" t="d">
@@ -2632,11 +2555,11 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="n">
-        <v>8873</v>
+        <v>8872</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>MSKU8668440</t>
+          <t>MSKU0599445</t>
         </is>
       </c>
       <c r="C15" s="0" t="n">
@@ -2693,13 +2616,13 @@
       </c>
       <c r="Q15" s="0" t="inlineStr">
         <is>
-          <t>KWH687350</t>
+          <t>KWH686830</t>
         </is>
       </c>
       <c r="R15" s="0"/>
       <c r="S15" s="0" t="inlineStr">
         <is>
-          <t>2018-9485</t>
+          <t>2018-9490</t>
         </is>
       </c>
       <c r="T15" s="0" t="d">
@@ -2737,11 +2660,11 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="n">
-        <v>8874</v>
+        <v>8873</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>PONU1855367</t>
+          <t>MSKU8668440</t>
         </is>
       </c>
       <c r="C16" s="0" t="n">
@@ -2749,7 +2672,7 @@
       </c>
       <c r="D16" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E16" s="0" t="inlineStr">
@@ -2798,13 +2721,13 @@
       </c>
       <c r="Q16" s="0" t="inlineStr">
         <is>
-          <t>KWH686929</t>
+          <t>KWH687350</t>
         </is>
       </c>
       <c r="R16" s="0"/>
       <c r="S16" s="0" t="inlineStr">
         <is>
-          <t>2018-9501</t>
+          <t>2018-9485</t>
         </is>
       </c>
       <c r="T16" s="0" t="d">
@@ -2842,11 +2765,11 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="n">
-        <v>8875</v>
+        <v>8874</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>MSKU6694310</t>
+          <t>PONU1855367</t>
         </is>
       </c>
       <c r="C17" s="0" t="n">
@@ -2903,20 +2826,20 @@
       </c>
       <c r="Q17" s="0" t="inlineStr">
         <is>
-          <t>KWH632850</t>
+          <t>KWH686929</t>
         </is>
       </c>
       <c r="R17" s="0"/>
       <c r="S17" s="0" t="inlineStr">
         <is>
-          <t>2018-9543</t>
+          <t>2018-9501</t>
         </is>
       </c>
       <c r="T17" s="0" t="d">
         <v>2018-05-19T00:00:00</v>
       </c>
       <c r="U17" s="0" t="d">
-        <v>2018-05-31T00:00:00</v>
+        <v>2018-05-30T00:00:00</v>
       </c>
       <c r="V17" s="0" t="inlineStr">
         <is>
@@ -2947,11 +2870,11 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
-        <v>8876</v>
+        <v>8875</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>MSKU6654010</t>
+          <t>MSKU6694310</t>
         </is>
       </c>
       <c r="C18" s="0" t="n">
@@ -3008,13 +2931,13 @@
       </c>
       <c r="Q18" s="0" t="inlineStr">
         <is>
-          <t>KWH687345</t>
+          <t>KWH632850</t>
         </is>
       </c>
       <c r="R18" s="0"/>
       <c r="S18" s="0" t="inlineStr">
         <is>
-          <t>2018-9544</t>
+          <t>2018-9543</t>
         </is>
       </c>
       <c r="T18" s="0" t="d">
@@ -3052,11 +2975,11 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="n">
-        <v>8877</v>
+        <v>8876</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>MSKU8000770</t>
+          <t>MSKU6654010</t>
         </is>
       </c>
       <c r="C19" s="0" t="n">
@@ -3064,7 +2987,7 @@
       </c>
       <c r="D19" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E19" s="0" t="inlineStr">
@@ -3113,13 +3036,13 @@
       </c>
       <c r="Q19" s="0" t="inlineStr">
         <is>
-          <t>KWH686930</t>
+          <t>KWH687345</t>
         </is>
       </c>
       <c r="R19" s="0"/>
       <c r="S19" s="0" t="inlineStr">
         <is>
-          <t>2018-9534</t>
+          <t>2018-9544</t>
         </is>
       </c>
       <c r="T19" s="0" t="d">
@@ -3157,11 +3080,11 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="n">
-        <v>8878</v>
+        <v>8877</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>PONU1823713</t>
+          <t>MSKU8000770</t>
         </is>
       </c>
       <c r="C20" s="0" t="n">
@@ -3169,7 +3092,7 @@
       </c>
       <c r="D20" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E20" s="0" t="inlineStr">
@@ -3218,20 +3141,20 @@
       </c>
       <c r="Q20" s="0" t="inlineStr">
         <is>
-          <t>KWH687283</t>
+          <t>KWH686930</t>
         </is>
       </c>
       <c r="R20" s="0"/>
       <c r="S20" s="0" t="inlineStr">
         <is>
-          <t>2018-9500</t>
+          <t>2018-9534</t>
         </is>
       </c>
       <c r="T20" s="0" t="d">
         <v>2018-05-19T00:00:00</v>
       </c>
       <c r="U20" s="0" t="d">
-        <v>2018-06-02T00:00:00</v>
+        <v>2018-05-31T00:00:00</v>
       </c>
       <c r="V20" s="0" t="inlineStr">
         <is>
@@ -3262,11 +3185,11 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="n">
-        <v>8879</v>
+        <v>8878</v>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>HASU4651075</t>
+          <t>PONU1823713</t>
         </is>
       </c>
       <c r="C21" s="0" t="n">
@@ -3274,7 +3197,7 @@
       </c>
       <c r="D21" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E21" s="0" t="inlineStr">
@@ -3321,13 +3244,15 @@
           <t>RAW COTTON</t>
         </is>
       </c>
-      <c r="Q21" s="0" t="n">
-        <v>686923</v>
+      <c r="Q21" s="0" t="inlineStr">
+        <is>
+          <t>KWH687283</t>
+        </is>
       </c>
       <c r="R21" s="0"/>
       <c r="S21" s="0" t="inlineStr">
         <is>
-          <t>2018-9671</t>
+          <t>2018-9500</t>
         </is>
       </c>
       <c r="T21" s="0" t="d">
@@ -3365,11 +3290,11 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="n">
-        <v>8880</v>
+        <v>8879</v>
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>PONU1438403</t>
+          <t>HASU4651075</t>
         </is>
       </c>
       <c r="C22" s="0" t="n">
@@ -3377,7 +3302,7 @@
       </c>
       <c r="D22" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E22" s="0" t="inlineStr">
@@ -3424,15 +3349,13 @@
           <t>RAW COTTON</t>
         </is>
       </c>
-      <c r="Q22" s="0" t="inlineStr">
-        <is>
-          <t>KWH687276</t>
-        </is>
+      <c r="Q22" s="0" t="n">
+        <v>686923</v>
       </c>
       <c r="R22" s="0"/>
       <c r="S22" s="0" t="inlineStr">
         <is>
-          <t>2018-9672</t>
+          <t>2018-9671</t>
         </is>
       </c>
       <c r="T22" s="0" t="d">
@@ -3470,11 +3393,11 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="n">
-        <v>8881</v>
+        <v>8880</v>
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
-          <t>MSKU6316727</t>
+          <t>PONU1438403</t>
         </is>
       </c>
       <c r="C23" s="0" t="n">
@@ -3531,13 +3454,13 @@
       </c>
       <c r="Q23" s="0" t="inlineStr">
         <is>
-          <t>UL2916156</t>
+          <t>KWH687276</t>
         </is>
       </c>
       <c r="R23" s="0"/>
       <c r="S23" s="0" t="inlineStr">
         <is>
-          <t>2018-9673</t>
+          <t>2018-9672</t>
         </is>
       </c>
       <c r="T23" s="0" t="d">
@@ -3575,11 +3498,11 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="n">
-        <v>8882</v>
+        <v>8881</v>
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>MAEU6360629</t>
+          <t>MSKU6316727</t>
         </is>
       </c>
       <c r="C24" s="0" t="n">
@@ -3636,13 +3559,13 @@
       </c>
       <c r="Q24" s="0" t="inlineStr">
         <is>
-          <t>KWH687285</t>
+          <t>UL2916156</t>
         </is>
       </c>
       <c r="R24" s="0"/>
       <c r="S24" s="0" t="inlineStr">
         <is>
-          <t>2018-9574</t>
+          <t>2018-9673</t>
         </is>
       </c>
       <c r="T24" s="0" t="d">
@@ -3680,11 +3603,11 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="n">
-        <v>8883</v>
+        <v>8882</v>
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
-          <t>PONU1484707</t>
+          <t>MAEU6360629</t>
         </is>
       </c>
       <c r="C25" s="0" t="n">
@@ -3741,13 +3664,13 @@
       </c>
       <c r="Q25" s="0" t="inlineStr">
         <is>
-          <t>KWH687286</t>
+          <t>KWH687285</t>
         </is>
       </c>
       <c r="R25" s="0"/>
       <c r="S25" s="0" t="inlineStr">
         <is>
-          <t>2018-9679</t>
+          <t>2018-9574</t>
         </is>
       </c>
       <c r="T25" s="0" t="d">
@@ -3785,11 +3708,11 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="n">
-        <v>8884</v>
+        <v>8883</v>
       </c>
       <c r="B26" s="0" t="inlineStr">
         <is>
-          <t>MRKU3419530</t>
+          <t>PONU1484707</t>
         </is>
       </c>
       <c r="C26" s="0" t="n">
@@ -3797,7 +3720,7 @@
       </c>
       <c r="D26" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E26" s="0" t="inlineStr">
@@ -3844,20 +3767,22 @@
           <t>RAW COTTON</t>
         </is>
       </c>
-      <c r="Q26" s="0" t="n">
-        <v>1098426</v>
+      <c r="Q26" s="0" t="inlineStr">
+        <is>
+          <t>KWH687286</t>
+        </is>
       </c>
       <c r="R26" s="0"/>
       <c r="S26" s="0" t="inlineStr">
         <is>
-          <t>2018-9632</t>
+          <t>2018-9679</t>
         </is>
       </c>
       <c r="T26" s="0" t="d">
         <v>2018-05-19T00:00:00</v>
       </c>
       <c r="U26" s="0" t="d">
-        <v>2018-06-03T00:00:00</v>
+        <v>2018-06-02T00:00:00</v>
       </c>
       <c r="V26" s="0" t="inlineStr">
         <is>
@@ -3888,11 +3813,11 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="n">
-        <v>8885</v>
+        <v>8884</v>
       </c>
       <c r="B27" s="0" t="inlineStr">
         <is>
-          <t>PONU7575743</t>
+          <t>MRKU3419530</t>
         </is>
       </c>
       <c r="C27" s="0" t="n">
@@ -3947,22 +3872,20 @@
           <t>RAW COTTON</t>
         </is>
       </c>
-      <c r="Q27" s="0" t="inlineStr">
-        <is>
-          <t>KWH686922</t>
-        </is>
+      <c r="Q27" s="0" t="n">
+        <v>1098426</v>
       </c>
       <c r="R27" s="0"/>
       <c r="S27" s="0" t="inlineStr">
         <is>
-          <t>2018-9506</t>
+          <t>2018-9632</t>
         </is>
       </c>
       <c r="T27" s="0" t="d">
         <v>2018-05-19T00:00:00</v>
       </c>
       <c r="U27" s="0" t="d">
-        <v>2018-06-04T00:00:00</v>
+        <v>2018-06-03T00:00:00</v>
       </c>
       <c r="V27" s="0" t="inlineStr">
         <is>
@@ -3993,11 +3916,11 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="n">
-        <v>8886</v>
+        <v>8885</v>
       </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
-          <t>TCLU5436696</t>
+          <t>PONU7575743</t>
         </is>
       </c>
       <c r="C28" s="0" t="n">
@@ -4054,13 +3977,13 @@
       </c>
       <c r="Q28" s="0" t="inlineStr">
         <is>
-          <t>KWH687295</t>
+          <t>KWH686922</t>
         </is>
       </c>
       <c r="R28" s="0"/>
       <c r="S28" s="0" t="inlineStr">
         <is>
-          <t>2018-9736</t>
+          <t>2018-9506</t>
         </is>
       </c>
       <c r="T28" s="0" t="d">
@@ -4098,11 +4021,11 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="n">
-        <v>8887</v>
+        <v>8886</v>
       </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
-          <t>MSKU6253948</t>
+          <t>TCLU5436696</t>
         </is>
       </c>
       <c r="C29" s="0" t="n">
@@ -4110,7 +4033,7 @@
       </c>
       <c r="D29" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E29" s="0" t="inlineStr">
@@ -4130,12 +4053,12 @@
       </c>
       <c r="H29" s="0" t="inlineStr">
         <is>
-          <t>BLPL GRACE</t>
+          <t>X-PRESS MAHANANDA</t>
         </is>
       </c>
       <c r="I29" s="0" t="inlineStr">
         <is>
-          <t>1650/2018</t>
+          <t>1588/2018</t>
         </is>
       </c>
       <c r="J29" s="0" t="inlineStr">
@@ -4159,20 +4082,20 @@
       </c>
       <c r="Q29" s="0" t="inlineStr">
         <is>
-          <t>KWH686907</t>
+          <t>KWH687295</t>
         </is>
       </c>
       <c r="R29" s="0"/>
       <c r="S29" s="0" t="inlineStr">
         <is>
-          <t>2018-9531</t>
+          <t>2018-9736</t>
         </is>
       </c>
       <c r="T29" s="0" t="d">
-        <v>2018-05-29T00:00:00</v>
+        <v>2018-05-19T00:00:00</v>
       </c>
       <c r="U29" s="0" t="d">
-        <v>2018-05-31T00:00:00</v>
+        <v>2018-06-04T00:00:00</v>
       </c>
       <c r="V29" s="0" t="inlineStr">
         <is>
@@ -4188,10 +4111,10 @@
         <v>0</v>
       </c>
       <c r="Y29" s="0" t="n">
-        <v>575334555</v>
+        <v>963897980</v>
       </c>
       <c r="Z29" s="0" t="n">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="AA29" s="0"/>
       <c r="AB29" s="0" t="inlineStr">
@@ -4203,11 +4126,11 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="n">
-        <v>8888</v>
+        <v>8887</v>
       </c>
       <c r="B30" s="0" t="inlineStr">
         <is>
-          <t>MSKU6120061</t>
+          <t>MSKU6253948</t>
         </is>
       </c>
       <c r="C30" s="0" t="n">
@@ -4264,13 +4187,13 @@
       </c>
       <c r="Q30" s="0" t="inlineStr">
         <is>
-          <t>KWH687320</t>
+          <t>KWH686907</t>
         </is>
       </c>
       <c r="R30" s="0"/>
       <c r="S30" s="0" t="inlineStr">
         <is>
-          <t>2018-9532</t>
+          <t>2018-9531</t>
         </is>
       </c>
       <c r="T30" s="0" t="d">
@@ -4308,11 +4231,11 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="n">
-        <v>8889</v>
+        <v>8888</v>
       </c>
       <c r="B31" s="0" t="inlineStr">
         <is>
-          <t>PONU7330756</t>
+          <t>MSKU6120061</t>
         </is>
       </c>
       <c r="C31" s="0" t="n">
@@ -4320,7 +4243,7 @@
       </c>
       <c r="D31" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E31" s="0" t="inlineStr">
@@ -4369,20 +4292,20 @@
       </c>
       <c r="Q31" s="0" t="inlineStr">
         <is>
-          <t>KWH687322</t>
+          <t>KWH687320</t>
         </is>
       </c>
       <c r="R31" s="0"/>
       <c r="S31" s="0" t="inlineStr">
         <is>
-          <t>2018-9693</t>
+          <t>2018-9532</t>
         </is>
       </c>
       <c r="T31" s="0" t="d">
         <v>2018-05-29T00:00:00</v>
       </c>
       <c r="U31" s="0" t="d">
-        <v>2018-06-03T00:00:00</v>
+        <v>2018-05-31T00:00:00</v>
       </c>
       <c r="V31" s="0" t="inlineStr">
         <is>
@@ -4413,11 +4336,11 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="n">
-        <v>8890</v>
+        <v>8889</v>
       </c>
       <c r="B32" s="0" t="inlineStr">
         <is>
-          <t>SUDU8595563</t>
+          <t>PONU7330756</t>
         </is>
       </c>
       <c r="C32" s="0" t="n">
@@ -4474,13 +4397,13 @@
       </c>
       <c r="Q32" s="0" t="inlineStr">
         <is>
-          <t>KWH686925</t>
+          <t>KWH687322</t>
         </is>
       </c>
       <c r="R32" s="0"/>
       <c r="S32" s="0" t="inlineStr">
         <is>
-          <t>2018-9704</t>
+          <t>2018-9693</t>
         </is>
       </c>
       <c r="T32" s="0" t="d">
@@ -4518,11 +4441,11 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="n">
-        <v>8891</v>
+        <v>8890</v>
       </c>
       <c r="B33" s="0" t="inlineStr">
         <is>
-          <t>MRKU0258961</t>
+          <t>SUDU8595563</t>
         </is>
       </c>
       <c r="C33" s="0" t="n">
@@ -4530,7 +4453,7 @@
       </c>
       <c r="D33" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E33" s="0" t="inlineStr">
@@ -4579,20 +4502,20 @@
       </c>
       <c r="Q33" s="0" t="inlineStr">
         <is>
-          <t>KWH686828</t>
+          <t>KWH686925</t>
         </is>
       </c>
       <c r="R33" s="0"/>
       <c r="S33" s="0" t="inlineStr">
         <is>
-          <t>2018-9955</t>
+          <t>2018-9704</t>
         </is>
       </c>
       <c r="T33" s="0" t="d">
         <v>2018-05-29T00:00:00</v>
       </c>
       <c r="U33" s="0" t="d">
-        <v>2018-06-07T00:00:00</v>
+        <v>2018-06-03T00:00:00</v>
       </c>
       <c r="V33" s="0" t="inlineStr">
         <is>
@@ -4623,11 +4546,11 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="n">
-        <v>8892</v>
+        <v>8891</v>
       </c>
       <c r="B34" s="0" t="inlineStr">
         <is>
-          <t>MRKU0243200</t>
+          <t>MRKU0258961</t>
         </is>
       </c>
       <c r="C34" s="0" t="n">
@@ -4684,13 +4607,13 @@
       </c>
       <c r="Q34" s="0" t="inlineStr">
         <is>
-          <t>KWH686758</t>
+          <t>KWH686828</t>
         </is>
       </c>
       <c r="R34" s="0"/>
       <c r="S34" s="0" t="inlineStr">
         <is>
-          <t>2018-9950</t>
+          <t>2018-9955</t>
         </is>
       </c>
       <c r="T34" s="0" t="d">
@@ -4728,11 +4651,11 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="n">
-        <v>8893</v>
+        <v>8892</v>
       </c>
       <c r="B35" s="0" t="inlineStr">
         <is>
-          <t>SUDU8785619</t>
+          <t>MRKU0243200</t>
         </is>
       </c>
       <c r="C35" s="0" t="n">
@@ -4740,7 +4663,7 @@
       </c>
       <c r="D35" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E35" s="0" t="inlineStr">
@@ -4789,20 +4712,20 @@
       </c>
       <c r="Q35" s="0" t="inlineStr">
         <is>
-          <t>KWH687329</t>
+          <t>KWH686758</t>
         </is>
       </c>
       <c r="R35" s="0"/>
       <c r="S35" s="0" t="inlineStr">
         <is>
-          <t>2018-10081</t>
+          <t>2018-9950</t>
         </is>
       </c>
       <c r="T35" s="0" t="d">
         <v>2018-05-29T00:00:00</v>
       </c>
       <c r="U35" s="0" t="d">
-        <v>2018-06-09T00:00:00</v>
+        <v>2018-06-07T00:00:00</v>
       </c>
       <c r="V35" s="0" t="inlineStr">
         <is>
@@ -4833,11 +4756,11 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="n">
-        <v>9005</v>
+        <v>8893</v>
       </c>
       <c r="B36" s="0" t="inlineStr">
         <is>
-          <t>MSKU6440949</t>
+          <t>SUDU8785619</t>
         </is>
       </c>
       <c r="C36" s="0" t="n">
@@ -4845,7 +4768,7 @@
       </c>
       <c r="D36" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E36" s="0" t="inlineStr">
@@ -4865,12 +4788,12 @@
       </c>
       <c r="H36" s="0" t="inlineStr">
         <is>
-          <t>BRIGHT</t>
+          <t>BLPL GRACE</t>
         </is>
       </c>
       <c r="I36" s="0" t="inlineStr">
         <is>
-          <t>2174/2018</t>
+          <t>1650/2018</t>
         </is>
       </c>
       <c r="J36" s="0" t="inlineStr">
@@ -4894,20 +4817,20 @@
       </c>
       <c r="Q36" s="0" t="inlineStr">
         <is>
-          <t>UL1614691</t>
+          <t>KWH687329</t>
         </is>
       </c>
       <c r="R36" s="0"/>
       <c r="S36" s="0" t="inlineStr">
         <is>
-          <t>2018-12092</t>
+          <t>2018-10081</t>
         </is>
       </c>
       <c r="T36" s="0" t="d">
-        <v>2018-07-17T00:00:00</v>
+        <v>2018-05-29T00:00:00</v>
       </c>
       <c r="U36" s="0" t="d">
-        <v>2018-07-19T00:00:00</v>
+        <v>2018-06-09T00:00:00</v>
       </c>
       <c r="V36" s="0" t="inlineStr">
         <is>
@@ -4923,10 +4846,10 @@
         <v>0</v>
       </c>
       <c r="Y36" s="0" t="n">
-        <v>964766879</v>
+        <v>575334555</v>
       </c>
       <c r="Z36" s="0" t="n">
-        <v>306</v>
+        <v>174</v>
       </c>
       <c r="AA36" s="0"/>
       <c r="AB36" s="0" t="inlineStr">
@@ -4938,11 +4861,11 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="n">
-        <v>9006</v>
+        <v>9005</v>
       </c>
       <c r="B37" s="0" t="inlineStr">
         <is>
-          <t>MSKU9550235</t>
+          <t>MSKU6440949</t>
         </is>
       </c>
       <c r="C37" s="0" t="n">
@@ -4950,7 +4873,7 @@
       </c>
       <c r="D37" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E37" s="0" t="inlineStr">
@@ -4999,13 +4922,13 @@
       </c>
       <c r="Q37" s="0" t="inlineStr">
         <is>
-          <t>UL1614692</t>
+          <t>UL1614691</t>
         </is>
       </c>
       <c r="R37" s="0"/>
       <c r="S37" s="0" t="inlineStr">
         <is>
-          <t>2018-12107</t>
+          <t>2018-12092</t>
         </is>
       </c>
       <c r="T37" s="0" t="d">
@@ -5043,11 +4966,11 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="n">
-        <v>9007</v>
+        <v>9006</v>
       </c>
       <c r="B38" s="0" t="inlineStr">
         <is>
-          <t>GLDU0996495</t>
+          <t>MSKU9550235</t>
         </is>
       </c>
       <c r="C38" s="0" t="n">
@@ -5055,7 +4978,7 @@
       </c>
       <c r="D38" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E38" s="0" t="inlineStr">
@@ -5104,20 +5027,20 @@
       </c>
       <c r="Q38" s="0" t="inlineStr">
         <is>
-          <t>UL1614690</t>
+          <t>UL1614692</t>
         </is>
       </c>
       <c r="R38" s="0"/>
       <c r="S38" s="0" t="inlineStr">
         <is>
-          <t>2018-12180</t>
+          <t>2018-12107</t>
         </is>
       </c>
       <c r="T38" s="0" t="d">
         <v>2018-07-17T00:00:00</v>
       </c>
       <c r="U38" s="0" t="d">
-        <v>2018-07-20T00:00:00</v>
+        <v>2018-07-19T00:00:00</v>
       </c>
       <c r="V38" s="0" t="inlineStr">
         <is>
@@ -5148,11 +5071,11 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="n">
-        <v>9008</v>
+        <v>9007</v>
       </c>
       <c r="B39" s="0" t="inlineStr">
         <is>
-          <t>MRKU0087827</t>
+          <t>GLDU0996495</t>
         </is>
       </c>
       <c r="C39" s="0" t="n">
@@ -5209,13 +5132,13 @@
       </c>
       <c r="Q39" s="0" t="inlineStr">
         <is>
-          <t>UL1614693</t>
+          <t>UL1614690</t>
         </is>
       </c>
       <c r="R39" s="0"/>
       <c r="S39" s="0" t="inlineStr">
         <is>
-          <t>2018-12164</t>
+          <t>2018-12180</t>
         </is>
       </c>
       <c r="T39" s="0" t="d">
@@ -5253,11 +5176,11 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="n">
-        <v>9009</v>
+        <v>9008</v>
       </c>
       <c r="B40" s="0" t="inlineStr">
         <is>
-          <t>MSKU8517886</t>
+          <t>MRKU0087827</t>
         </is>
       </c>
       <c r="C40" s="0" t="n">
@@ -5265,7 +5188,7 @@
       </c>
       <c r="D40" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E40" s="0" t="inlineStr">
@@ -5314,20 +5237,20 @@
       </c>
       <c r="Q40" s="0" t="inlineStr">
         <is>
-          <t>UL1615420</t>
+          <t>UL1614693</t>
         </is>
       </c>
       <c r="R40" s="0"/>
       <c r="S40" s="0" t="inlineStr">
         <is>
-          <t>2018-12102</t>
+          <t>2018-12164</t>
         </is>
       </c>
       <c r="T40" s="0" t="d">
         <v>2018-07-17T00:00:00</v>
       </c>
       <c r="U40" s="0" t="d">
-        <v>2018-07-19T00:00:00</v>
+        <v>2018-07-20T00:00:00</v>
       </c>
       <c r="V40" s="0" t="inlineStr">
         <is>
@@ -5343,10 +5266,10 @@
         <v>0</v>
       </c>
       <c r="Y40" s="0" t="n">
-        <v>964573753</v>
+        <v>964766879</v>
       </c>
       <c r="Z40" s="0" t="n">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="AA40" s="0"/>
       <c r="AB40" s="0" t="inlineStr">
@@ -5358,11 +5281,11 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="n">
-        <v>9010</v>
+        <v>9009</v>
       </c>
       <c r="B41" s="0" t="inlineStr">
         <is>
-          <t>TRLU6876549</t>
+          <t>MSKU8517886</t>
         </is>
       </c>
       <c r="C41" s="0" t="n">
@@ -5419,13 +5342,13 @@
       </c>
       <c r="Q41" s="0" t="inlineStr">
         <is>
-          <t>UL1615419</t>
+          <t>UL1615420</t>
         </is>
       </c>
       <c r="R41" s="0"/>
       <c r="S41" s="0" t="inlineStr">
         <is>
-          <t>2018-12138</t>
+          <t>2018-12102</t>
         </is>
       </c>
       <c r="T41" s="0" t="d">
@@ -5463,11 +5386,11 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="n">
-        <v>9011</v>
+        <v>9010</v>
       </c>
       <c r="B42" s="0" t="inlineStr">
         <is>
-          <t>MAEU6357369</t>
+          <t>TRLU6876549</t>
         </is>
       </c>
       <c r="C42" s="0" t="n">
@@ -5475,7 +5398,7 @@
       </c>
       <c r="D42" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E42" s="0" t="inlineStr">
@@ -5524,20 +5447,20 @@
       </c>
       <c r="Q42" s="0" t="inlineStr">
         <is>
-          <t>UL1615421</t>
+          <t>UL1615419</t>
         </is>
       </c>
       <c r="R42" s="0"/>
       <c r="S42" s="0" t="inlineStr">
         <is>
-          <t>2018-12171</t>
+          <t>2018-12138</t>
         </is>
       </c>
       <c r="T42" s="0" t="d">
         <v>2018-07-17T00:00:00</v>
       </c>
       <c r="U42" s="0" t="d">
-        <v>2018-07-20T00:00:00</v>
+        <v>2018-07-19T00:00:00</v>
       </c>
       <c r="V42" s="0" t="inlineStr">
         <is>
@@ -5568,11 +5491,11 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="n">
-        <v>9012</v>
+        <v>9011</v>
       </c>
       <c r="B43" s="0" t="inlineStr">
         <is>
-          <t>MSKU6094337</t>
+          <t>MAEU6357369</t>
         </is>
       </c>
       <c r="C43" s="0" t="n">
@@ -5629,20 +5552,20 @@
       </c>
       <c r="Q43" s="0" t="inlineStr">
         <is>
-          <t>UL1615417</t>
+          <t>UL1615421</t>
         </is>
       </c>
       <c r="R43" s="0"/>
       <c r="S43" s="0" t="inlineStr">
         <is>
-          <t>2018-12187</t>
+          <t>2018-12171</t>
         </is>
       </c>
       <c r="T43" s="0" t="d">
         <v>2018-07-17T00:00:00</v>
       </c>
       <c r="U43" s="0" t="d">
-        <v>2018-07-23T00:00:00</v>
+        <v>2018-07-20T00:00:00</v>
       </c>
       <c r="V43" s="0" t="inlineStr">
         <is>
@@ -5673,11 +5596,11 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="n">
-        <v>9013</v>
+        <v>9012</v>
       </c>
       <c r="B44" s="0" t="inlineStr">
         <is>
-          <t>MSKU6509705</t>
+          <t>MSKU6094337</t>
         </is>
       </c>
       <c r="C44" s="0" t="n">
@@ -5734,20 +5657,20 @@
       </c>
       <c r="Q44" s="0" t="inlineStr">
         <is>
-          <t>KWH687414</t>
+          <t>UL1615417</t>
         </is>
       </c>
       <c r="R44" s="0"/>
       <c r="S44" s="0" t="inlineStr">
         <is>
-          <t>2018-12091</t>
+          <t>2018-12187</t>
         </is>
       </c>
       <c r="T44" s="0" t="d">
         <v>2018-07-17T00:00:00</v>
       </c>
       <c r="U44" s="0" t="d">
-        <v>2018-07-20T00:00:00</v>
+        <v>2018-07-23T00:00:00</v>
       </c>
       <c r="V44" s="0" t="inlineStr">
         <is>
@@ -5763,10 +5686,10 @@
         <v>0</v>
       </c>
       <c r="Y44" s="0" t="n">
-        <v>575756665</v>
+        <v>964573753</v>
       </c>
       <c r="Z44" s="0" t="n">
-        <v>255</v>
+        <v>302</v>
       </c>
       <c r="AA44" s="0"/>
       <c r="AB44" s="0" t="inlineStr">
@@ -5778,11 +5701,11 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="n">
-        <v>9040</v>
+        <v>9013</v>
       </c>
       <c r="B45" s="0" t="inlineStr">
         <is>
-          <t>TGHU6043898</t>
+          <t>MSKU6509705</t>
         </is>
       </c>
       <c r="C45" s="0" t="n">
@@ -5790,7 +5713,7 @@
       </c>
       <c r="D45" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E45" s="0" t="inlineStr">
@@ -5810,12 +5733,12 @@
       </c>
       <c r="H45" s="0" t="inlineStr">
         <is>
-          <t>OEL BANGLADESH</t>
+          <t>BRIGHT</t>
         </is>
       </c>
       <c r="I45" s="0" t="inlineStr">
         <is>
-          <t>2232/2018</t>
+          <t>2174/2018</t>
         </is>
       </c>
       <c r="J45" s="0" t="inlineStr">
@@ -5837,20 +5760,22 @@
           <t>RAW COTTON</t>
         </is>
       </c>
-      <c r="Q45" s="0" t="n">
-        <v>2185060</v>
+      <c r="Q45" s="0" t="inlineStr">
+        <is>
+          <t>KWH687414</t>
+        </is>
       </c>
       <c r="R45" s="0"/>
       <c r="S45" s="0" t="inlineStr">
         <is>
-          <t>2018-12875</t>
+          <t>2018-12091</t>
         </is>
       </c>
       <c r="T45" s="0" t="d">
-        <v>2018-07-30T00:00:00</v>
+        <v>2018-07-17T00:00:00</v>
       </c>
       <c r="U45" s="0" t="d">
-        <v>2018-07-31T00:00:00</v>
+        <v>2018-07-20T00:00:00</v>
       </c>
       <c r="V45" s="0" t="inlineStr">
         <is>
@@ -5866,10 +5791,10 @@
         <v>0</v>
       </c>
       <c r="Y45" s="0" t="n">
-        <v>964620392</v>
+        <v>575756665</v>
       </c>
       <c r="Z45" s="0" t="n">
-        <v>130</v>
+        <v>255</v>
       </c>
       <c r="AA45" s="0"/>
       <c r="AB45" s="0" t="inlineStr">
@@ -5881,11 +5806,11 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="n">
-        <v>9041</v>
+        <v>9040</v>
       </c>
       <c r="B46" s="0" t="inlineStr">
         <is>
-          <t>MSKU0637123</t>
+          <t>TGHU6043898</t>
         </is>
       </c>
       <c r="C46" s="0" t="n">
@@ -5941,12 +5866,12 @@
         </is>
       </c>
       <c r="Q46" s="0" t="n">
-        <v>2830816</v>
+        <v>2185060</v>
       </c>
       <c r="R46" s="0"/>
       <c r="S46" s="0" t="inlineStr">
         <is>
-          <t>2018-12868</t>
+          <t>2018-12875</t>
         </is>
       </c>
       <c r="T46" s="0" t="d">
@@ -5984,11 +5909,11 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="n">
-        <v>9042</v>
+        <v>9041</v>
       </c>
       <c r="B47" s="0" t="inlineStr">
         <is>
-          <t>PONU1819272</t>
+          <t>MSKU0637123</t>
         </is>
       </c>
       <c r="C47" s="0" t="n">
@@ -6043,22 +5968,20 @@
           <t>RAW COTTON</t>
         </is>
       </c>
-      <c r="Q47" s="0" t="inlineStr">
-        <is>
-          <t>UL2830749</t>
-        </is>
+      <c r="Q47" s="0" t="n">
+        <v>2830816</v>
       </c>
       <c r="R47" s="0"/>
       <c r="S47" s="0" t="inlineStr">
         <is>
-          <t>2018-12930</t>
+          <t>2018-12868</t>
         </is>
       </c>
       <c r="T47" s="0" t="d">
         <v>2018-07-30T00:00:00</v>
       </c>
       <c r="U47" s="0" t="d">
-        <v>2018-08-01T00:00:00</v>
+        <v>2018-07-31T00:00:00</v>
       </c>
       <c r="V47" s="0" t="inlineStr">
         <is>
@@ -6089,11 +6012,11 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="n">
-        <v>9043</v>
+        <v>9042</v>
       </c>
       <c r="B48" s="0" t="inlineStr">
         <is>
-          <t>CAXU9261436</t>
+          <t>PONU1819272</t>
         </is>
       </c>
       <c r="C48" s="0" t="n">
@@ -6148,13 +6071,15 @@
           <t>RAW COTTON</t>
         </is>
       </c>
-      <c r="Q48" s="0" t="n">
-        <v>4107818</v>
+      <c r="Q48" s="0" t="inlineStr">
+        <is>
+          <t>UL2830749</t>
+        </is>
       </c>
       <c r="R48" s="0"/>
       <c r="S48" s="0" t="inlineStr">
         <is>
-          <t>2018-12935</t>
+          <t>2018-12930</t>
         </is>
       </c>
       <c r="T48" s="0" t="d">
@@ -6192,11 +6117,11 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="n">
-        <v>9044</v>
+        <v>9043</v>
       </c>
       <c r="B49" s="0" t="inlineStr">
         <is>
-          <t>PONU8266482</t>
+          <t>CAXU9261436</t>
         </is>
       </c>
       <c r="C49" s="0" t="n">
@@ -6251,15 +6176,13 @@
           <t>RAW COTTON</t>
         </is>
       </c>
-      <c r="Q49" s="0" t="inlineStr">
-        <is>
-          <t>UL2830749</t>
-        </is>
+      <c r="Q49" s="0" t="n">
+        <v>4107818</v>
       </c>
       <c r="R49" s="0"/>
       <c r="S49" s="0" t="inlineStr">
         <is>
-          <t>2018-12940</t>
+          <t>2018-12935</t>
         </is>
       </c>
       <c r="T49" s="0" t="d">
@@ -6297,11 +6220,11 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="n">
-        <v>9045</v>
+        <v>9044</v>
       </c>
       <c r="B50" s="0" t="inlineStr">
         <is>
-          <t>PONU7811427</t>
+          <t>PONU8266482</t>
         </is>
       </c>
       <c r="C50" s="0" t="n">
@@ -6329,12 +6252,12 @@
       </c>
       <c r="H50" s="0" t="inlineStr">
         <is>
-          <t>XPRESS LHOTSE</t>
+          <t>OEL BANGLADESH</t>
         </is>
       </c>
       <c r="I50" s="0" t="inlineStr">
         <is>
-          <t>2291/2018</t>
+          <t>2232/2018</t>
         </is>
       </c>
       <c r="J50" s="0" t="inlineStr">
@@ -6358,21 +6281,21 @@
       </c>
       <c r="Q50" s="0" t="inlineStr">
         <is>
-          <t>UL2830879</t>
+          <t>UL2830749</t>
         </is>
       </c>
       <c r="R50" s="0"/>
       <c r="S50" s="0" t="inlineStr">
         <is>
-          <t>2018-12988</t>
+          <t>2018-12940</t>
         </is>
       </c>
       <c r="T50" s="0" t="d">
+        <v>2018-07-30T00:00:00</v>
+      </c>
+      <c r="U50" s="0" t="d">
         <v>2018-08-01T00:00:00</v>
       </c>
-      <c r="U50" s="0" t="d">
-        <v>2018-08-03T00:00:00</v>
-      </c>
       <c r="V50" s="0" t="inlineStr">
         <is>
           <t>CPA</t>
@@ -6387,10 +6310,10 @@
         <v>0</v>
       </c>
       <c r="Y50" s="0" t="n">
-        <v>964694340</v>
+        <v>964620392</v>
       </c>
       <c r="Z50" s="0" t="n">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AA50" s="0"/>
       <c r="AB50" s="0" t="inlineStr">
@@ -6402,11 +6325,11 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="n">
-        <v>9046</v>
+        <v>9045</v>
       </c>
       <c r="B51" s="0" t="inlineStr">
         <is>
-          <t>PONU7918251</t>
+          <t>PONU7811427</t>
         </is>
       </c>
       <c r="C51" s="0" t="n">
@@ -6463,13 +6386,13 @@
       </c>
       <c r="Q51" s="0" t="inlineStr">
         <is>
-          <t>UL2830857</t>
+          <t>UL2830879</t>
         </is>
       </c>
       <c r="R51" s="0"/>
       <c r="S51" s="0" t="inlineStr">
         <is>
-          <t>2018-12986</t>
+          <t>2018-12988</t>
         </is>
       </c>
       <c r="T51" s="0" t="d">
@@ -6507,11 +6430,11 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="n">
-        <v>9047</v>
+        <v>9046</v>
       </c>
       <c r="B52" s="0" t="inlineStr">
         <is>
-          <t>PONU1692260</t>
+          <t>PONU7918251</t>
         </is>
       </c>
       <c r="C52" s="0" t="n">
@@ -6519,7 +6442,7 @@
       </c>
       <c r="D52" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E52" s="0" t="inlineStr">
@@ -6568,13 +6491,13 @@
       </c>
       <c r="Q52" s="0" t="inlineStr">
         <is>
-          <t>UL2830877</t>
+          <t>UL2830857</t>
         </is>
       </c>
       <c r="R52" s="0"/>
       <c r="S52" s="0" t="inlineStr">
         <is>
-          <t>2018-12992</t>
+          <t>2018-12986</t>
         </is>
       </c>
       <c r="T52" s="0" t="d">
@@ -6612,11 +6535,11 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="n">
-        <v>9048</v>
+        <v>9047</v>
       </c>
       <c r="B53" s="0" t="inlineStr">
         <is>
-          <t>MSKU9609945</t>
+          <t>PONU1692260</t>
         </is>
       </c>
       <c r="C53" s="0" t="n">
@@ -6624,7 +6547,7 @@
       </c>
       <c r="D53" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E53" s="0" t="inlineStr">
@@ -6673,13 +6596,13 @@
       </c>
       <c r="Q53" s="0" t="inlineStr">
         <is>
-          <t>UL2830851</t>
+          <t>UL2830877</t>
         </is>
       </c>
       <c r="R53" s="0"/>
       <c r="S53" s="0" t="inlineStr">
         <is>
-          <t>2018-12991</t>
+          <t>2018-12992</t>
         </is>
       </c>
       <c r="T53" s="0" t="d">
@@ -6717,11 +6640,11 @@
     </row>
     <row r="54">
       <c r="A54" s="0" t="n">
-        <v>9049</v>
+        <v>9048</v>
       </c>
       <c r="B54" s="0" t="inlineStr">
         <is>
-          <t>MSKU8354454</t>
+          <t>MSKU9609945</t>
         </is>
       </c>
       <c r="C54" s="0" t="n">
@@ -6778,13 +6701,13 @@
       </c>
       <c r="Q54" s="0" t="inlineStr">
         <is>
-          <t>UL2830854</t>
+          <t>UL2830851</t>
         </is>
       </c>
       <c r="R54" s="0"/>
       <c r="S54" s="0" t="inlineStr">
         <is>
-          <t>2018-12990</t>
+          <t>2018-12991</t>
         </is>
       </c>
       <c r="T54" s="0" t="d">
@@ -6822,11 +6745,11 @@
     </row>
     <row r="55">
       <c r="A55" s="0" t="n">
-        <v>9050</v>
+        <v>9049</v>
       </c>
       <c r="B55" s="0" t="inlineStr">
         <is>
-          <t>PONU1894316</t>
+          <t>MSKU8354454</t>
         </is>
       </c>
       <c r="C55" s="0" t="n">
@@ -6834,7 +6757,7 @@
       </c>
       <c r="D55" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E55" s="0" t="inlineStr">
@@ -6883,13 +6806,13 @@
       </c>
       <c r="Q55" s="0" t="inlineStr">
         <is>
-          <t>UL2830882</t>
+          <t>UL2830854</t>
         </is>
       </c>
       <c r="R55" s="0"/>
       <c r="S55" s="0" t="inlineStr">
         <is>
-          <t>2018-12995</t>
+          <t>2018-12990</t>
         </is>
       </c>
       <c r="T55" s="0" t="d">
@@ -6927,11 +6850,11 @@
     </row>
     <row r="56">
       <c r="A56" s="0" t="n">
-        <v>9051</v>
+        <v>9050</v>
       </c>
       <c r="B56" s="0" t="inlineStr">
         <is>
-          <t>MSKU9252694</t>
+          <t>PONU1894316</t>
         </is>
       </c>
       <c r="C56" s="0" t="n">
@@ -6939,7 +6862,7 @@
       </c>
       <c r="D56" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E56" s="0" t="inlineStr">
@@ -6988,13 +6911,13 @@
       </c>
       <c r="Q56" s="0" t="inlineStr">
         <is>
-          <t>UL2830875</t>
+          <t>UL2830882</t>
         </is>
       </c>
       <c r="R56" s="0"/>
       <c r="S56" s="0" t="inlineStr">
         <is>
-          <t>2018-12998</t>
+          <t>2018-12995</t>
         </is>
       </c>
       <c r="T56" s="0" t="d">
@@ -7032,11 +6955,11 @@
     </row>
     <row r="57">
       <c r="A57" s="0" t="n">
-        <v>9052</v>
+        <v>9051</v>
       </c>
       <c r="B57" s="0" t="inlineStr">
         <is>
-          <t>MSKU9470931</t>
+          <t>MSKU9252694</t>
         </is>
       </c>
       <c r="C57" s="0" t="n">
@@ -7093,13 +7016,13 @@
       </c>
       <c r="Q57" s="0" t="inlineStr">
         <is>
-          <t>UL2830855</t>
+          <t>UL2830875</t>
         </is>
       </c>
       <c r="R57" s="0"/>
       <c r="S57" s="0" t="inlineStr">
         <is>
-          <t>2018-12999</t>
+          <t>2018-12998</t>
         </is>
       </c>
       <c r="T57" s="0" t="d">
@@ -7137,11 +7060,11 @@
     </row>
     <row r="58">
       <c r="A58" s="0" t="n">
-        <v>9053</v>
+        <v>9052</v>
       </c>
       <c r="B58" s="0" t="inlineStr">
         <is>
-          <t>MSKU8752592</t>
+          <t>MSKU9470931</t>
         </is>
       </c>
       <c r="C58" s="0" t="n">
@@ -7198,13 +7121,13 @@
       </c>
       <c r="Q58" s="0" t="inlineStr">
         <is>
-          <t>UL2830880</t>
+          <t>UL2830855</t>
         </is>
       </c>
       <c r="R58" s="0"/>
       <c r="S58" s="0" t="inlineStr">
         <is>
-          <t>2018-12997</t>
+          <t>2018-12999</t>
         </is>
       </c>
       <c r="T58" s="0" t="d">
@@ -7242,11 +7165,11 @@
     </row>
     <row r="59">
       <c r="A59" s="0" t="n">
-        <v>9054</v>
+        <v>9053</v>
       </c>
       <c r="B59" s="0" t="inlineStr">
         <is>
-          <t>MIEU3069581</t>
+          <t>MSKU8752592</t>
         </is>
       </c>
       <c r="C59" s="0" t="n">
@@ -7303,20 +7226,20 @@
       </c>
       <c r="Q59" s="0" t="inlineStr">
         <is>
-          <t>UL2830853</t>
+          <t>UL2830880</t>
         </is>
       </c>
       <c r="R59" s="0"/>
       <c r="S59" s="0" t="inlineStr">
         <is>
-          <t>2018-13084</t>
+          <t>2018-12997</t>
         </is>
       </c>
       <c r="T59" s="0" t="d">
         <v>2018-08-01T00:00:00</v>
       </c>
       <c r="U59" s="0" t="d">
-        <v>2018-08-04T00:00:00</v>
+        <v>2018-08-03T00:00:00</v>
       </c>
       <c r="V59" s="0" t="inlineStr">
         <is>
@@ -7347,11 +7270,11 @@
     </row>
     <row r="60">
       <c r="A60" s="0" t="n">
-        <v>9055</v>
+        <v>9054</v>
       </c>
       <c r="B60" s="0" t="inlineStr">
         <is>
-          <t>MSKU6874333</t>
+          <t>MIEU3069581</t>
         </is>
       </c>
       <c r="C60" s="0" t="n">
@@ -7359,7 +7282,7 @@
       </c>
       <c r="D60" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E60" s="0" t="inlineStr">
@@ -7408,20 +7331,20 @@
       </c>
       <c r="Q60" s="0" t="inlineStr">
         <is>
-          <t>UL2830881</t>
+          <t>UL2830853</t>
         </is>
       </c>
       <c r="R60" s="0"/>
       <c r="S60" s="0" t="inlineStr">
         <is>
-          <t>2018-13180</t>
+          <t>2018-13084</t>
         </is>
       </c>
       <c r="T60" s="0" t="d">
         <v>2018-08-01T00:00:00</v>
       </c>
       <c r="U60" s="0" t="d">
-        <v>2018-08-10T00:00:00</v>
+        <v>2018-08-04T00:00:00</v>
       </c>
       <c r="V60" s="0" t="inlineStr">
         <is>
@@ -7452,11 +7375,11 @@
     </row>
     <row r="61">
       <c r="A61" s="0" t="n">
-        <v>9056</v>
+        <v>9055</v>
       </c>
       <c r="B61" s="0" t="inlineStr">
         <is>
-          <t>PONU7777364</t>
+          <t>MSKU6874333</t>
         </is>
       </c>
       <c r="C61" s="0" t="n">
@@ -7464,7 +7387,7 @@
       </c>
       <c r="D61" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E61" s="0" t="inlineStr">
@@ -7513,20 +7436,20 @@
       </c>
       <c r="Q61" s="0" t="inlineStr">
         <is>
-          <t>UL2830878</t>
+          <t>UL2830881</t>
         </is>
       </c>
       <c r="R61" s="0"/>
       <c r="S61" s="0" t="inlineStr">
         <is>
-          <t>2018-13246</t>
+          <t>2018-13180</t>
         </is>
       </c>
       <c r="T61" s="0" t="d">
         <v>2018-08-01T00:00:00</v>
       </c>
       <c r="U61" s="0" t="d">
-        <v>2018-08-11T00:00:00</v>
+        <v>2018-08-10T00:00:00</v>
       </c>
       <c r="V61" s="0" t="inlineStr">
         <is>
@@ -7557,11 +7480,11 @@
     </row>
     <row r="62">
       <c r="A62" s="0" t="n">
-        <v>9057</v>
+        <v>9056</v>
       </c>
       <c r="B62" s="0" t="inlineStr">
         <is>
-          <t>PONU1813931</t>
+          <t>PONU7777364</t>
         </is>
       </c>
       <c r="C62" s="0" t="n">
@@ -7569,7 +7492,7 @@
       </c>
       <c r="D62" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E62" s="0" t="inlineStr">
@@ -7618,13 +7541,13 @@
       </c>
       <c r="Q62" s="0" t="inlineStr">
         <is>
-          <t>UL2830852</t>
+          <t>UL2830878</t>
         </is>
       </c>
       <c r="R62" s="0"/>
       <c r="S62" s="0" t="inlineStr">
         <is>
-          <t>2018-13181</t>
+          <t>2018-13246</t>
         </is>
       </c>
       <c r="T62" s="0" t="d">
@@ -7662,15 +7585,15 @@
     </row>
     <row r="63">
       <c r="A63" s="0" t="n">
-        <v>9722</v>
+        <v>9057</v>
       </c>
       <c r="B63" s="0" t="inlineStr">
         <is>
-          <t>MSKU5753050</t>
+          <t>PONU1813931</t>
         </is>
       </c>
       <c r="C63" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D63" s="0" t="inlineStr">
         <is>
@@ -7694,17 +7617,17 @@
       </c>
       <c r="H63" s="0" t="inlineStr">
         <is>
-          <t>CAROLINA TRADER</t>
+          <t>XPRESS LHOTSE</t>
         </is>
       </c>
       <c r="I63" s="0" t="inlineStr">
         <is>
-          <t>2794/2018</t>
+          <t>2291/2018</t>
         </is>
       </c>
       <c r="J63" s="0" t="inlineStr">
         <is>
-          <t>JTC CARGO INTERNATIONAL</t>
+          <t>A A COARSE SPUN LTD</t>
         </is>
       </c>
       <c r="K63" s="0" t="inlineStr">
@@ -7718,25 +7641,25 @@
       <c r="O63" s="0"/>
       <c r="P63" s="0" t="inlineStr">
         <is>
-          <t>SODIUM SULPHATE</t>
+          <t>RAW COTTON</t>
         </is>
       </c>
       <c r="Q63" s="0" t="inlineStr">
         <is>
-          <t>CN8969052</t>
+          <t>UL2830852</t>
         </is>
       </c>
       <c r="R63" s="0"/>
       <c r="S63" s="0" t="inlineStr">
         <is>
-          <t>2018-15622</t>
+          <t>2018-13181</t>
         </is>
       </c>
       <c r="T63" s="0" t="d">
-        <v>2018-09-17T00:00:00</v>
+        <v>2018-08-01T00:00:00</v>
       </c>
       <c r="U63" s="0" t="d">
-        <v>2018-09-17T00:00:00</v>
+        <v>2018-08-11T00:00:00</v>
       </c>
       <c r="V63" s="0" t="inlineStr">
         <is>
@@ -7751,13 +7674,11 @@
       <c r="X63" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="Y63" s="0" t="inlineStr">
-        <is>
-          <t>MCB418551</t>
-        </is>
+      <c r="Y63" s="0" t="n">
+        <v>964694340</v>
       </c>
       <c r="Z63" s="0" t="n">
-        <v>278</v>
+        <v>133</v>
       </c>
       <c r="AA63" s="0"/>
       <c r="AB63" s="0" t="inlineStr">
@@ -7769,11 +7690,11 @@
     </row>
     <row r="64">
       <c r="A64" s="0" t="n">
-        <v>9723</v>
+        <v>9722</v>
       </c>
       <c r="B64" s="0" t="inlineStr">
         <is>
-          <t>PONU2098653</t>
+          <t>MSKU5753050</t>
         </is>
       </c>
       <c r="C64" s="0" t="n">
@@ -7830,13 +7751,13 @@
       </c>
       <c r="Q64" s="0" t="inlineStr">
         <is>
-          <t>CN8969053</t>
+          <t>CN8969052</t>
         </is>
       </c>
       <c r="R64" s="0"/>
       <c r="S64" s="0" t="inlineStr">
         <is>
-          <t>2018-15623</t>
+          <t>2018-15622</t>
         </is>
       </c>
       <c r="T64" s="0" t="d">
@@ -7876,11 +7797,11 @@
     </row>
     <row r="65">
       <c r="A65" s="0" t="n">
-        <v>9724</v>
+        <v>9723</v>
       </c>
       <c r="B65" s="0" t="inlineStr">
         <is>
-          <t>MSKU2852892</t>
+          <t>PONU2098653</t>
         </is>
       </c>
       <c r="C65" s="0" t="n">
@@ -7937,13 +7858,13 @@
       </c>
       <c r="Q65" s="0" t="inlineStr">
         <is>
-          <t>CN8969127</t>
+          <t>CN8969053</t>
         </is>
       </c>
       <c r="R65" s="0"/>
       <c r="S65" s="0" t="inlineStr">
         <is>
-          <t>2018-15624</t>
+          <t>2018-15623</t>
         </is>
       </c>
       <c r="T65" s="0" t="d">
@@ -7983,11 +7904,11 @@
     </row>
     <row r="66">
       <c r="A66" s="0" t="n">
-        <v>9725</v>
+        <v>9724</v>
       </c>
       <c r="B66" s="0" t="inlineStr">
         <is>
-          <t>IPXU3733892</t>
+          <t>MSKU2852892</t>
         </is>
       </c>
       <c r="C66" s="0" t="n">
@@ -8044,13 +7965,13 @@
       </c>
       <c r="Q66" s="0" t="inlineStr">
         <is>
-          <t>CN8969128</t>
+          <t>CN8969127</t>
         </is>
       </c>
       <c r="R66" s="0"/>
       <c r="S66" s="0" t="inlineStr">
         <is>
-          <t>2018-15625</t>
+          <t>2018-15624</t>
         </is>
       </c>
       <c r="T66" s="0" t="d">
@@ -8088,14 +8009,122 @@
       </c>
       <c r="AC66" s="0"/>
     </row>
+    <row r="67">
+      <c r="A67" s="0" t="n">
+        <v>9725</v>
+      </c>
+      <c r="B67" s="0" t="inlineStr">
+        <is>
+          <t>IPXU3733892</t>
+        </is>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D67" s="0" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="E67" s="0" t="inlineStr">
+        <is>
+          <t>SAPL-W</t>
+        </is>
+      </c>
+      <c r="F67" s="0" t="inlineStr">
+        <is>
+          <t>MBL</t>
+        </is>
+      </c>
+      <c r="G67" s="0" t="inlineStr">
+        <is>
+          <t>MBL</t>
+        </is>
+      </c>
+      <c r="H67" s="0" t="inlineStr">
+        <is>
+          <t>CAROLINA TRADER</t>
+        </is>
+      </c>
+      <c r="I67" s="0" t="inlineStr">
+        <is>
+          <t>2794/2018</t>
+        </is>
+      </c>
+      <c r="J67" s="0" t="inlineStr">
+        <is>
+          <t>JTC CARGO INTERNATIONAL</t>
+        </is>
+      </c>
+      <c r="K67" s="0" t="inlineStr">
+        <is>
+          <t>SOUND</t>
+        </is>
+      </c>
+      <c r="L67" s="0"/>
+      <c r="M67" s="0"/>
+      <c r="N67" s="0"/>
+      <c r="O67" s="0"/>
+      <c r="P67" s="0" t="inlineStr">
+        <is>
+          <t>SODIUM SULPHATE</t>
+        </is>
+      </c>
+      <c r="Q67" s="0" t="inlineStr">
+        <is>
+          <t>CN8969128</t>
+        </is>
+      </c>
+      <c r="R67" s="0"/>
+      <c r="S67" s="0" t="inlineStr">
+        <is>
+          <t>2018-15625</t>
+        </is>
+      </c>
+      <c r="T67" s="0" t="d">
+        <v>2018-09-17T00:00:00</v>
+      </c>
+      <c r="U67" s="0" t="d">
+        <v>2018-09-17T00:00:00</v>
+      </c>
+      <c r="V67" s="0" t="inlineStr">
+        <is>
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="W67" s="0" t="inlineStr">
+        <is>
+          <t>SAPL</t>
+        </is>
+      </c>
+      <c r="X67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y67" s="0" t="inlineStr">
+        <is>
+          <t>MCB418551</t>
+        </is>
+      </c>
+      <c r="Z67" s="0" t="n">
+        <v>278</v>
+      </c>
+      <c r="AA67" s="0"/>
+      <c r="AB67" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC67" s="0"/>
+    </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A2:AD2"/>
     <mergeCell ref="A3:AD3"/>
     <mergeCell ref="A4:AD4"/>
     <mergeCell ref="A5:AD5"/>
+    <mergeCell ref="A6:AD6"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
@@ -8324,12 +8353,13 @@
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A2:AD2"/>
     <mergeCell ref="A3:AD3"/>
     <mergeCell ref="A4:AD4"/>
     <mergeCell ref="A5:AD5"/>
+    <mergeCell ref="A6:AD6"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
@@ -8343,7 +8373,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V30"/>
+  <dimension ref="A1:V31"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -8401,209 +8431,128 @@
         </is>
       </c>
     </row>
-    <row r="5"/>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>Total number of conatiners:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="6"/>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>Container Number</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>Size</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>Height</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>Company</t>
         </is>
       </c>
-      <c r="G6" s="4" t="inlineStr">
+      <c r="G7" s="4" t="inlineStr">
         <is>
           <t>Agent</t>
         </is>
       </c>
-      <c r="H6" s="4" t="inlineStr">
+      <c r="H7" s="4" t="inlineStr">
         <is>
           <t>MLO</t>
         </is>
       </c>
-      <c r="I6" s="4" t="inlineStr">
+      <c r="I7" s="4" t="inlineStr">
         <is>
           <t>Vessel</t>
         </is>
       </c>
-      <c r="J6" s="4" t="inlineStr">
+      <c r="J7" s="4" t="inlineStr">
         <is>
           <t>Rotation #</t>
         </is>
       </c>
-      <c r="K6" s="4" t="inlineStr">
+      <c r="K7" s="4" t="inlineStr">
         <is>
           <t>Line #</t>
         </is>
       </c>
-      <c r="L6" s="4" t="inlineStr">
+      <c r="L7" s="4" t="inlineStr">
         <is>
           <t>BE #</t>
         </is>
       </c>
-      <c r="M6" s="4" t="inlineStr">
+      <c r="M7" s="4" t="inlineStr">
         <is>
           <t>BL #</t>
         </is>
       </c>
-      <c r="N6" s="4" t="inlineStr">
+      <c r="N7" s="4" t="inlineStr">
         <is>
           <t>Importer</t>
         </is>
       </c>
-      <c r="O6" s="4" t="inlineStr">
+      <c r="O7" s="4" t="inlineStr">
         <is>
           <t>CNF</t>
         </is>
       </c>
-      <c r="P6" s="4" t="inlineStr">
+      <c r="P7" s="4" t="inlineStr">
         <is>
           <t>EIR #</t>
         </is>
       </c>
-      <c r="Q6" s="4" t="inlineStr">
+      <c r="Q7" s="4" t="inlineStr">
         <is>
           <t>Location - From</t>
         </is>
       </c>
-      <c r="R6" s="4" t="inlineStr">
+      <c r="R7" s="4" t="inlineStr">
         <is>
           <t>Depo Loc</t>
         </is>
       </c>
-      <c r="S6" s="4" t="inlineStr">
+      <c r="S7" s="4" t="inlineStr">
         <is>
           <t>Seal Number</t>
         </is>
       </c>
-      <c r="T6" s="4" t="inlineStr">
+      <c r="T7" s="4" t="inlineStr">
         <is>
           <t>Amended Seal No</t>
         </is>
       </c>
-      <c r="U6" s="4" t="inlineStr">
+      <c r="U7" s="4" t="inlineStr">
         <is>
           <t>Issue Date</t>
         </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="n">
-        <v>11068</v>
-      </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>FSCU3516047</t>
-        </is>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="D7" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="F7" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="G7" s="0" t="inlineStr">
-        <is>
-          <t>MBL</t>
-        </is>
-      </c>
-      <c r="H7" s="0" t="inlineStr">
-        <is>
-          <t>MBL</t>
-        </is>
-      </c>
-      <c r="I7" s="0" t="inlineStr">
-        <is>
-          <t>MCC TOKYO</t>
-        </is>
-      </c>
-      <c r="J7" s="0" t="inlineStr">
-        <is>
-          <t>2016/2000</t>
-        </is>
-      </c>
-      <c r="K7" s="0" t="n">
-        <v>329</v>
-      </c>
-      <c r="L7" s="0" t="n">
-        <v>581875712</v>
-      </c>
-      <c r="M7" s="0"/>
-      <c r="N7" s="0" t="inlineStr">
-        <is>
-          <t>ASWAD COMPOSITE MILLS</t>
-        </is>
-      </c>
-      <c r="O7" s="0"/>
-      <c r="P7" s="0" t="inlineStr">
-        <is>
-          <t>SAPL/IEIR/2018/5</t>
-        </is>
-      </c>
-      <c r="Q7" s="0" t="inlineStr">
-        <is>
-          <t>SODIUM SULPHATE</t>
-        </is>
-      </c>
-      <c r="R7" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="S7" s="0" t="inlineStr">
-        <is>
-          <t>SAPL</t>
-        </is>
-      </c>
-      <c r="T7" s="0" t="inlineStr">
-        <is>
-          <t>CN1223846</t>
-        </is>
-      </c>
-      <c r="U7" s="0"/>
-      <c r="V7" s="0" t="d">
-        <v>2018-09-23T12:26:09.819</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="n">
-        <v>11069</v>
+        <v>11068</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>SUDU1853136</t>
+          <t>FSCU3516047</t>
         </is>
       </c>
       <c r="C8" s="0" t="n">
@@ -8655,7 +8604,11 @@
         </is>
       </c>
       <c r="O8" s="0"/>
-      <c r="P8" s="0"/>
+      <c r="P8" s="0" t="inlineStr">
+        <is>
+          <t>SAPL/IEIR/2018/5</t>
+        </is>
+      </c>
       <c r="Q8" s="0" t="inlineStr">
         <is>
           <t>SODIUM SULPHATE</t>
@@ -8673,7 +8626,7 @@
       </c>
       <c r="T8" s="0" t="inlineStr">
         <is>
-          <t>CN1597493</t>
+          <t>CN1223846</t>
         </is>
       </c>
       <c r="U8" s="0"/>
@@ -8683,11 +8636,11 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="n">
-        <v>11070</v>
+        <v>11069</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>PONU0262114</t>
+          <t>SUDU1853136</t>
         </is>
       </c>
       <c r="C9" s="0" t="n">
@@ -8757,7 +8710,7 @@
       </c>
       <c r="T9" s="0" t="inlineStr">
         <is>
-          <t>CN1597448</t>
+          <t>CN1597493</t>
         </is>
       </c>
       <c r="U9" s="0"/>
@@ -8767,11 +8720,11 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="n">
-        <v>11071</v>
+        <v>11070</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>MSKU7690840</t>
+          <t>PONU0262114</t>
         </is>
       </c>
       <c r="C10" s="0" t="n">
@@ -8841,7 +8794,7 @@
       </c>
       <c r="T10" s="0" t="inlineStr">
         <is>
-          <t>CN1597480</t>
+          <t>CN1597448</t>
         </is>
       </c>
       <c r="U10" s="0"/>
@@ -8851,11 +8804,11 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="n">
-        <v>11072</v>
+        <v>11071</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>MSKU7539849</t>
+          <t>MSKU7690840</t>
         </is>
       </c>
       <c r="C11" s="0" t="n">
@@ -8925,7 +8878,7 @@
       </c>
       <c r="T11" s="0" t="inlineStr">
         <is>
-          <t>CN1223955</t>
+          <t>CN1597480</t>
         </is>
       </c>
       <c r="U11" s="0"/>
@@ -8935,11 +8888,11 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="n">
-        <v>11073</v>
+        <v>11072</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>MSKU7166405</t>
+          <t>MSKU7539849</t>
         </is>
       </c>
       <c r="C12" s="0" t="n">
@@ -9009,7 +8962,7 @@
       </c>
       <c r="T12" s="0" t="inlineStr">
         <is>
-          <t>CN1223844</t>
+          <t>CN1223955</t>
         </is>
       </c>
       <c r="U12" s="0"/>
@@ -9019,11 +8972,11 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="n">
-        <v>11074</v>
+        <v>11073</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>MSKU7006562</t>
+          <t>MSKU7166405</t>
         </is>
       </c>
       <c r="C13" s="0" t="n">
@@ -9093,7 +9046,7 @@
       </c>
       <c r="T13" s="0" t="inlineStr">
         <is>
-          <t>CN1597466</t>
+          <t>CN1223844</t>
         </is>
       </c>
       <c r="U13" s="0"/>
@@ -9103,11 +9056,11 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="n">
-        <v>11075</v>
+        <v>11074</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>MSKU5738456</t>
+          <t>MSKU7006562</t>
         </is>
       </c>
       <c r="C14" s="0" t="n">
@@ -9177,7 +9130,7 @@
       </c>
       <c r="T14" s="0" t="inlineStr">
         <is>
-          <t>CN1223871</t>
+          <t>CN1597466</t>
         </is>
       </c>
       <c r="U14" s="0"/>
@@ -9187,11 +9140,11 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="n">
-        <v>11076</v>
+        <v>11075</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>MSKU5708657</t>
+          <t>MSKU5738456</t>
         </is>
       </c>
       <c r="C15" s="0" t="n">
@@ -9261,7 +9214,7 @@
       </c>
       <c r="T15" s="0" t="inlineStr">
         <is>
-          <t>CN1223841</t>
+          <t>CN1223871</t>
         </is>
       </c>
       <c r="U15" s="0"/>
@@ -9271,11 +9224,11 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="n">
-        <v>11077</v>
+        <v>11076</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>MSKU5112400</t>
+          <t>MSKU5708657</t>
         </is>
       </c>
       <c r="C16" s="0" t="n">
@@ -9345,7 +9298,7 @@
       </c>
       <c r="T16" s="0" t="inlineStr">
         <is>
-          <t>CN1597471</t>
+          <t>CN1223841</t>
         </is>
       </c>
       <c r="U16" s="0"/>
@@ -9355,11 +9308,11 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="n">
-        <v>11078</v>
+        <v>11077</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>MSKU4192530</t>
+          <t>MSKU5112400</t>
         </is>
       </c>
       <c r="C17" s="0" t="n">
@@ -9429,7 +9382,7 @@
       </c>
       <c r="T17" s="0" t="inlineStr">
         <is>
-          <t>CN1597481</t>
+          <t>CN1597471</t>
         </is>
       </c>
       <c r="U17" s="0"/>
@@ -9439,11 +9392,11 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
-        <v>11079</v>
+        <v>11078</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>MSKU3534237</t>
+          <t>MSKU4192530</t>
         </is>
       </c>
       <c r="C18" s="0" t="n">
@@ -9513,7 +9466,7 @@
       </c>
       <c r="T18" s="0" t="inlineStr">
         <is>
-          <t>CN1597483</t>
+          <t>CN1597481</t>
         </is>
       </c>
       <c r="U18" s="0"/>
@@ -9523,11 +9476,11 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="n">
-        <v>11080</v>
+        <v>11079</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>MSKU3262674</t>
+          <t>MSKU3534237</t>
         </is>
       </c>
       <c r="C19" s="0" t="n">
@@ -9597,7 +9550,7 @@
       </c>
       <c r="T19" s="0" t="inlineStr">
         <is>
-          <t>CN1597490</t>
+          <t>CN1597483</t>
         </is>
       </c>
       <c r="U19" s="0"/>
@@ -9607,11 +9560,11 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="n">
-        <v>11081</v>
+        <v>11080</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>MSKU3088726</t>
+          <t>MSKU3262674</t>
         </is>
       </c>
       <c r="C20" s="0" t="n">
@@ -9681,7 +9634,7 @@
       </c>
       <c r="T20" s="0" t="inlineStr">
         <is>
-          <t>CN1223847</t>
+          <t>CN1597490</t>
         </is>
       </c>
       <c r="U20" s="0"/>
@@ -9691,11 +9644,11 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="n">
-        <v>11082</v>
+        <v>11081</v>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>MRKU9577471</t>
+          <t>MSKU3088726</t>
         </is>
       </c>
       <c r="C21" s="0" t="n">
@@ -9765,7 +9718,7 @@
       </c>
       <c r="T21" s="0" t="inlineStr">
         <is>
-          <t>CN1223952</t>
+          <t>CN1223847</t>
         </is>
       </c>
       <c r="U21" s="0"/>
@@ -9775,11 +9728,11 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="n">
-        <v>11083</v>
+        <v>11082</v>
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>MRKU8894867</t>
+          <t>MRKU9577471</t>
         </is>
       </c>
       <c r="C22" s="0" t="n">
@@ -9849,7 +9802,7 @@
       </c>
       <c r="T22" s="0" t="inlineStr">
         <is>
-          <t>CN1597473</t>
+          <t>CN1223952</t>
         </is>
       </c>
       <c r="U22" s="0"/>
@@ -9859,11 +9812,11 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="n">
-        <v>11084</v>
+        <v>11083</v>
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
-          <t>MRKU7239840</t>
+          <t>MRKU8894867</t>
         </is>
       </c>
       <c r="C23" s="0" t="n">
@@ -9933,7 +9886,7 @@
       </c>
       <c r="T23" s="0" t="inlineStr">
         <is>
-          <t>CN1223848</t>
+          <t>CN1597473</t>
         </is>
       </c>
       <c r="U23" s="0"/>
@@ -9943,11 +9896,11 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="n">
-        <v>11085</v>
+        <v>11084</v>
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>MRKU6935550</t>
+          <t>MRKU7239840</t>
         </is>
       </c>
       <c r="C24" s="0" t="n">
@@ -10017,7 +9970,7 @@
       </c>
       <c r="T24" s="0" t="inlineStr">
         <is>
-          <t>CN1223761</t>
+          <t>CN1223848</t>
         </is>
       </c>
       <c r="U24" s="0"/>
@@ -10027,11 +9980,11 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="n">
-        <v>11086</v>
+        <v>11085</v>
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
-          <t>MRKU6891920</t>
+          <t>MRKU6935550</t>
         </is>
       </c>
       <c r="C25" s="0" t="n">
@@ -10101,7 +10054,7 @@
       </c>
       <c r="T25" s="0" t="inlineStr">
         <is>
-          <t>CN1597472</t>
+          <t>CN1223761</t>
         </is>
       </c>
       <c r="U25" s="0"/>
@@ -10111,11 +10064,11 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="n">
-        <v>11087</v>
+        <v>11086</v>
       </c>
       <c r="B26" s="0" t="inlineStr">
         <is>
-          <t>MRKU6500840</t>
+          <t>MRKU6891920</t>
         </is>
       </c>
       <c r="C26" s="0" t="n">
@@ -10185,7 +10138,7 @@
       </c>
       <c r="T26" s="0" t="inlineStr">
         <is>
-          <t>CN1223843</t>
+          <t>CN1597472</t>
         </is>
       </c>
       <c r="U26" s="0"/>
@@ -10195,11 +10148,11 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="n">
-        <v>11088</v>
+        <v>11087</v>
       </c>
       <c r="B27" s="0" t="inlineStr">
         <is>
-          <t>HASU1271554</t>
+          <t>MRKU6500840</t>
         </is>
       </c>
       <c r="C27" s="0" t="n">
@@ -10269,7 +10222,7 @@
       </c>
       <c r="T27" s="0" t="inlineStr">
         <is>
-          <t>CN1223974</t>
+          <t>CN1223843</t>
         </is>
       </c>
       <c r="U27" s="0"/>
@@ -10279,11 +10232,11 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="n">
-        <v>11089</v>
+        <v>11088</v>
       </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
-          <t>GESU3669463</t>
+          <t>HASU1271554</t>
         </is>
       </c>
       <c r="C28" s="0" t="n">
@@ -10353,7 +10306,7 @@
       </c>
       <c r="T28" s="0" t="inlineStr">
         <is>
-          <t>CN1597478</t>
+          <t>CN1223974</t>
         </is>
       </c>
       <c r="U28" s="0"/>
@@ -10363,11 +10316,11 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="n">
-        <v>11090</v>
+        <v>11089</v>
       </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
-          <t>SUDU1872481</t>
+          <t>GESU3669463</t>
         </is>
       </c>
       <c r="C29" s="0" t="n">
@@ -10437,7 +10390,7 @@
       </c>
       <c r="T29" s="0" t="inlineStr">
         <is>
-          <t>CN1223803</t>
+          <t>CN1597478</t>
         </is>
       </c>
       <c r="U29" s="0"/>
@@ -10447,11 +10400,11 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="n">
-        <v>11091</v>
+        <v>11090</v>
       </c>
       <c r="B30" s="0" t="inlineStr">
         <is>
-          <t>TCKU2852898</t>
+          <t>SUDU1872481</t>
         </is>
       </c>
       <c r="C30" s="0" t="n">
@@ -10521,7 +10474,7 @@
       </c>
       <c r="T30" s="0" t="inlineStr">
         <is>
-          <t>CN1223842</t>
+          <t>CN1223803</t>
         </is>
       </c>
       <c r="U30" s="0"/>
@@ -10529,14 +10482,99 @@
         <v>2018-09-23T12:26:09.819</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" s="0" t="n">
+        <v>11091</v>
+      </c>
+      <c r="B31" s="0" t="inlineStr">
+        <is>
+          <t>TCKU2852898</t>
+        </is>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D31" s="0" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="F31" s="0" t="inlineStr">
+        <is>
+          <t>SAPL-E</t>
+        </is>
+      </c>
+      <c r="G31" s="0" t="inlineStr">
+        <is>
+          <t>MBL</t>
+        </is>
+      </c>
+      <c r="H31" s="0" t="inlineStr">
+        <is>
+          <t>MBL</t>
+        </is>
+      </c>
+      <c r="I31" s="0" t="inlineStr">
+        <is>
+          <t>MCC TOKYO</t>
+        </is>
+      </c>
+      <c r="J31" s="0" t="inlineStr">
+        <is>
+          <t>2016/2000</t>
+        </is>
+      </c>
+      <c r="K31" s="0" t="n">
+        <v>329</v>
+      </c>
+      <c r="L31" s="0" t="n">
+        <v>581875712</v>
+      </c>
+      <c r="M31" s="0"/>
+      <c r="N31" s="0" t="inlineStr">
+        <is>
+          <t>ASWAD COMPOSITE MILLS</t>
+        </is>
+      </c>
+      <c r="O31" s="0"/>
+      <c r="P31" s="0"/>
+      <c r="Q31" s="0" t="inlineStr">
+        <is>
+          <t>SODIUM SULPHATE</t>
+        </is>
+      </c>
+      <c r="R31" s="0" t="inlineStr">
+        <is>
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="S31" s="0" t="inlineStr">
+        <is>
+          <t>SAPL</t>
+        </is>
+      </c>
+      <c r="T31" s="0" t="inlineStr">
+        <is>
+          <t>CN1223842</t>
+        </is>
+      </c>
+      <c r="U31" s="0"/>
+      <c r="V31" s="0" t="d">
+        <v>2018-09-23T12:26:09.819</v>
+      </c>
+    </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A2:AD2"/>
     <mergeCell ref="A3:AD3"/>
     <mergeCell ref="A4:AD4"/>
     <mergeCell ref="A5:AD5"/>
+    <mergeCell ref="A6:AD6"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
